--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -14,6 +14,10 @@
     <sheet name="Suite3" sheetId="4" r:id="rId4"/>
     <sheet name="Suite4" sheetId="5" r:id="rId5"/>
     <sheet name="Suite5" sheetId="6" r:id="rId6"/>
+    <sheet name="Suite6" sheetId="7" r:id="rId7"/>
+    <sheet name="Suite7" sheetId="8" r:id="rId8"/>
+    <sheet name="Suite8" sheetId="9" r:id="rId9"/>
+    <sheet name="Suite9" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Suite1">Suite1!$A$1:$C$11</definedName>
@@ -23,11 +27,12 @@
     <definedName name="Suite5">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:G10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -53,18 +58,21 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
     <t>Suite2</t>
   </si>
   <si>
@@ -74,10 +82,7 @@
     <t>Suite3</t>
   </si>
   <si>
-    <t>Order Detail Page</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>Order Summary Page</t>
   </si>
   <si>
     <t>Suite4</t>
@@ -92,6 +97,30 @@
     <t>Suite5</t>
   </si>
   <si>
+    <t>Product Description Page</t>
+  </si>
+  <si>
+    <t>Suite6</t>
+  </si>
+  <si>
+    <t>Product Listing Page</t>
+  </si>
+  <si>
+    <t>Suite7</t>
+  </si>
+  <si>
+    <t>Product Strip</t>
+  </si>
+  <si>
+    <t>Suite8</t>
+  </si>
+  <si>
+    <t>Card List</t>
+  </si>
+  <si>
+    <t>Suite9</t>
+  </si>
+  <si>
     <t>SETTINGS</t>
   </si>
   <si>
@@ -128,9 +157,6 @@
     <t>HTML Report</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>XLS REPORT</t>
   </si>
   <si>
@@ -182,6 +208,9 @@
     <t>Merge cart items: Ensure that items in the cart merged upon user logged in.</t>
   </si>
   <si>
+    <t>INVALID TC</t>
+  </si>
+  <si>
     <t>IGP_TC_095</t>
   </si>
   <si>
@@ -206,6 +235,54 @@
     <t>Cart is Empty: Ensure that user 'Cart Is Empty ' and 'Continue Shopping' message is displaying when there are no items in the cart.</t>
   </si>
   <si>
+    <t>IGP_TC_099</t>
+  </si>
+  <si>
+    <t>Place Order for Courier products:Ensure that the user is able to place order by clicking on 'Place order' button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_100</t>
+  </si>
+  <si>
+    <t>Place Order for USA products-Free Shipping:Ensure that the user is able to place order by clicking on 'Place order' button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_101</t>
+  </si>
+  <si>
+    <t>Add quantity:Ensure that user can increase the quantity of the product.</t>
+  </si>
+  <si>
+    <t>IGP_TC_102</t>
+  </si>
+  <si>
+    <t>Delivery supported in USA: Ensure that the user experiences a warning message when delivery is not supported for India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_256</t>
+  </si>
+  <si>
+    <t>Delivery supported in India: Ensure that the user experiences a warning message when delivery is not supported in places other than India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_257</t>
+  </si>
+  <si>
+    <t>Delivery supported in other countries: Ensure that the user experiences a warning message when delivery is placed in other countries.</t>
+  </si>
+  <si>
+    <t>IGP_TC_258</t>
+  </si>
+  <si>
+    <t>Chat Feature: Ensure that chat pop-up window appears.</t>
+  </si>
+  <si>
+    <t>IGP_TC_259</t>
+  </si>
+  <si>
+    <t>Remove using Remove link: Ensure that the user able to remove the item using Remove link.</t>
+  </si>
+  <si>
     <t>IGP_TC_159</t>
   </si>
   <si>
@@ -461,6 +538,9 @@
     <t>Enter Message/View Message: Ensure that  functionality of Enter Message/view message in 'Payment' page.</t>
   </si>
   <si>
+    <t>Wrong Test</t>
+  </si>
+  <si>
     <t>IGP_TC_219</t>
   </si>
   <si>
@@ -470,49 +550,313 @@
     <t>IGP_TC_082</t>
   </si>
   <si>
-    <t>Navigating to 'Order Summary' page: Ensure that the user is able to navigate to particularly selected Order Summary page.</t>
+    <t>Navigating to 'Order Summary' page-: Ensure that the user is able to navigate to particularly selected Order Summary page.</t>
   </si>
   <si>
     <t>IGP_TC_083</t>
   </si>
   <si>
-    <t>Validate 'Edit your Contact Details' field:Ensure that the user able to edit contact details on Order Summary page.</t>
+    <t>In Order Summary page, validate 'Edit your Contact Details' field-: Ensure that the user able to edit contact details on Order Summary page.</t>
   </si>
   <si>
     <t>IGP_TC_084</t>
   </si>
   <si>
-    <t>To change the Fix Date Delivery field: Ensure that delivery date can be changed.</t>
+    <t>To change the Fix Date Delivery field-: Ensure that delivery date can be changed.</t>
   </si>
   <si>
     <t>IGP_TC_085</t>
   </si>
   <si>
-    <t>To add  quantity for  selected product:Ensure that user can increase the quantity of the product.</t>
+    <t>To add  quantity for  selected product-: Ensure that user can increase the quantity of the product.</t>
   </si>
   <si>
     <t>IGP_TC_086</t>
   </si>
   <si>
-    <t>Navigate to Payment page:Ensure that the user navigates to Payment page</t>
+    <t>Navigate to Payment page-: Ensure that the user navigates to Payment page</t>
   </si>
   <si>
     <t>IGP_TC_087</t>
   </si>
   <si>
-    <t>Types of delivery options:Ensure that the selected delivery option should be updated on change.</t>
+    <t>Types of delivery options-: Ensure that the selected delivery option should be updated on change.</t>
   </si>
   <si>
     <t>IGP_TC_088</t>
   </si>
   <si>
-    <t>Apply Coupon Code:Ensure that the user able to apply coupon code.</t>
+    <t>Apply Coupon Code-: Ensure that the user able to apply coupon code.</t>
   </si>
   <si>
     <t>IGP_TC_089</t>
   </si>
   <si>
-    <t>Enter Message:Ensure that the user should be able to enter message.</t>
+    <t>Enter Message-: Ensure that the user should be able to enter message.</t>
+  </si>
+  <si>
+    <t>IGP_TC_URL</t>
+  </si>
+  <si>
+    <t>IGP url test</t>
+  </si>
+  <si>
+    <t>IGP_TC_103</t>
+  </si>
+  <si>
+    <t>Pin code validation:Ensure that the pin code box is accepting more than 6 digits, alphabets &amp; special symbols or not.</t>
+  </si>
+  <si>
+    <t>IGP_TC_104</t>
+  </si>
+  <si>
+    <t>Delivery Area Pin code validation: Ensure that error message is coming for places where delivery is not supported.</t>
+  </si>
+  <si>
+    <t>IGP_TC_105</t>
+  </si>
+  <si>
+    <t>International shipping: 'Enter Country name' field: Ensure that Enter Country name field should not accept numbers &amp; special symbols.</t>
+  </si>
+  <si>
+    <t>IGP_TC_106</t>
+  </si>
+  <si>
+    <t>Image of the gift:Ensure that the Image box should be in the left of the product description page and it has to display multiple thumbnails in different angles of the gift below it.</t>
+  </si>
+  <si>
+    <t>IGP_TC_107</t>
+  </si>
+  <si>
+    <t>Zoom in feature on the image:Ensure that when the user  mouse hover on image, it Should zoom in.</t>
+  </si>
+  <si>
+    <t>IGP_TC_108</t>
+  </si>
+  <si>
+    <t>Product name and Price-:Ensure that the selected product name and price   should be same with what we are selected in listing page.</t>
+  </si>
+  <si>
+    <t>IGP_TC_109</t>
+  </si>
+  <si>
+    <t>Size option-: Ensure that the Size option displayed when size variants exist.</t>
+  </si>
+  <si>
+    <t>IGP_TC_110</t>
+  </si>
+  <si>
+    <t>Need Help?-:Ensure that user able to send query by clicking on 'Need Help' from the "Product Description" page.</t>
+  </si>
+  <si>
+    <t>IGP_TC_111</t>
+  </si>
+  <si>
+    <t>Colour selection option-: Ensure that Colour selection option is static in case of only one colour and select colour with many pieces options in case colour variants exist .</t>
+  </si>
+  <si>
+    <t>IGP_TC_112</t>
+  </si>
+  <si>
+    <t>Personalized Now-: Ensure  that Personalized now button should display when user select the personalized product only.</t>
+  </si>
+  <si>
+    <t>IGP_TC_113</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Personalized Now-:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure that user should not navigate to the next page with out completing all the steps in 'personalize now'.</t>
+    </r>
+  </si>
+  <si>
+    <t>IGP_TC_114</t>
+  </si>
+  <si>
+    <t>Buy without 'Personalizing' the gift-: Ensure with out personalizing the product when user click on Buy now , it should not navigate.</t>
+  </si>
+  <si>
+    <t>IGP_TC_115</t>
+  </si>
+  <si>
+    <t>Shipping options should be visible: Ensure that shipping option should be visible for India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_116</t>
+  </si>
+  <si>
+    <t>Shipping charges for international delivery: Ensure that there should be Shipping charges for international delivery.</t>
+  </si>
+  <si>
+    <t>IGP_TC_117</t>
+  </si>
+  <si>
+    <t>Free shipping to US and not shippable to other countries: Ensure that the items which are shippable to US are not shippable to other countries.</t>
+  </si>
+  <si>
+    <t>IGP_TC_118</t>
+  </si>
+  <si>
+    <t>Free shipping to all countries but not shippable to US: Ensure that the items which are shippable to other countries are not shippable to US.</t>
+  </si>
+  <si>
+    <t>IGP_TC_241</t>
+  </si>
+  <si>
+    <t>Fields are present: Ensure that all the respective fields should be visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_242</t>
+  </si>
+  <si>
+    <t>Check Image fields: Ensure that image fields are present.</t>
+  </si>
+  <si>
+    <t>IGP_TC_243</t>
+  </si>
+  <si>
+    <t>Error message for International Deliveries: Ensure that international delivery not possible for Flowers.</t>
+  </si>
+  <si>
+    <t>IGP_TC_244</t>
+  </si>
+  <si>
+    <t>Error message for International Deliveries: Ensure that international delivery not possible for Cakes.</t>
+  </si>
+  <si>
+    <t>IGP_TC_245</t>
+  </si>
+  <si>
+    <t>Delivery Options visibility: All the 3 delivery options should be visbile.</t>
+  </si>
+  <si>
+    <t>IGP_TC_246</t>
+  </si>
+  <si>
+    <t>Fixed Date delivery:Ensure that the user selects the Fix Date delivery option.</t>
+  </si>
+  <si>
+    <t>IGP_TC_247</t>
+  </si>
+  <si>
+    <t>Fixed time delivery:Ensure that the user selects the Fixed time delivery option.</t>
+  </si>
+  <si>
+    <t>IGP_TC_248</t>
+  </si>
+  <si>
+    <t>Midnight Delivery:Ensure that the user selects the Midnight Delivery option.</t>
+  </si>
+  <si>
+    <t>IGP_TC_249</t>
+  </si>
+  <si>
+    <t>Product Description tab: Verify that Product Description tab is visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_250</t>
+  </si>
+  <si>
+    <t>Similar Gift Recommendations: Verify that Similar Gift Recommendations heading is visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_251</t>
+  </si>
+  <si>
+    <t>Footer: Verify that Similar Gift Recommendations heading is visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_252</t>
+  </si>
+  <si>
+    <t>Buy Now: Check the functionality of Buy Now button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_253</t>
+  </si>
+  <si>
+    <t>Add to Cart: Ensure that the product is added to cart upon clicking 'Add to cart' button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_254</t>
+  </si>
+  <si>
+    <t>Product variety: Ensure that user select product with different varities.</t>
+  </si>
+  <si>
+    <t>IGP_TC_255</t>
+  </si>
+  <si>
+    <t>Choose Type of Base: Ensure that user select the base.</t>
+  </si>
+  <si>
+    <t>IGP_TC_232</t>
+  </si>
+  <si>
+    <t>Navigate to Product Listing page:User is able to see all the details on Product Listing Page for Birthday Card.</t>
+  </si>
+  <si>
+    <t>IGP_TC_233</t>
+  </si>
+  <si>
+    <t>Navigate to Product Listing page:User is able to see all the details on Product Listing Page for Women.</t>
+  </si>
+  <si>
+    <t>IGP_TC_234</t>
+  </si>
+  <si>
+    <t>Navigate to Product Listing page:User is able to see all the details on Product Listing Page for Anniversary Gifts.</t>
+  </si>
+  <si>
+    <t>IGP_TC_235</t>
+  </si>
+  <si>
+    <t>Navigate to Product Strip page:User is able to see all the details on Product Strip  Page for a festival.</t>
+  </si>
+  <si>
+    <t>IGP_TC_236</t>
+  </si>
+  <si>
+    <t>Navigate to Product Strip page:User is able to see all the details on Product Strip  Page for a country.</t>
+  </si>
+  <si>
+    <t>IGP_TC_237</t>
+  </si>
+  <si>
+    <t>Navigate to Product Strip page:User is able to see all the details on Product Strip  Page for same delivery gifts.</t>
+  </si>
+  <si>
+    <t>IGP_TC_238</t>
+  </si>
+  <si>
+    <t>Navigate to Card List page:User is able to see all the details on Card List Page for Birthday.</t>
+  </si>
+  <si>
+    <t>IGP_TC_239</t>
+  </si>
+  <si>
+    <t>Navigate to Card List page:User is able to see all the details on Card List Page for Gifts for Women.</t>
+  </si>
+  <si>
+    <t>IGP_TC_240</t>
+  </si>
+  <si>
+    <t>Navigate to Card List page:User is able to see all the details on Card List Page for Anniversary Gifts.</t>
   </si>
 </sst>
 </file>
@@ -520,12 +864,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -704,6 +1048,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -712,13 +1063,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,6 +1081,13 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -760,13 +1111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +1153,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,18 +1184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,18 +1219,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -898,7 +1237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,24 +1286,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1409,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1072,21 +1432,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1094,7 +1445,7 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1106,133 +1457,160 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1249,18 +1627,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -1277,6 +1649,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1678,357 +2053,475 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6095238095238" style="13"/>
-    <col min="2" max="2" width="21.4666666666667" style="13"/>
-    <col min="3" max="3" width="10.6666666666667" style="13"/>
-    <col min="4" max="4" width="6.60952380952381" style="13"/>
-    <col min="5" max="5" width="22.1714285714286" style="13"/>
-    <col min="6" max="1025" width="6.07619047619048" style="13"/>
+    <col min="1" max="1" width="31.8571428571429" style="20"/>
+    <col min="2" max="2" width="17.2761904761905" style="20"/>
+    <col min="3" max="3" width="8.37142857142857" style="20"/>
+    <col min="4" max="4" width="6.07619047619048" style="20"/>
+    <col min="5" max="5" width="18.0857142857143" style="20"/>
+    <col min="6" max="1025" width="6.07619047619048" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+    <row r="1" ht="15.75" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+    <row r="3" ht="15.75" spans="1:5">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="18" t="s">
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25">
+        <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:5">
+      <c r="A8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25">
+        <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:5">
+      <c r="A9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="18">
-        <f>IF(B7="Y",COUNTIF(Suite4!B3:B51,"Y"),0)</f>
+    <row r="10" ht="15.75" spans="1:5">
+      <c r="A10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="15" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="15" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="15" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="15" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="15" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="15" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" ht="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="20" t="s">
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19" t="s">
+      <c r="D11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="21">
-        <f>SUM(E3:E7)</f>
-        <v>3</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="12"/>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:5">
+      <c r="A17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:5">
+      <c r="A18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:5">
+      <c r="A19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:5">
+      <c r="A20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="29">
+        <f>SUM(E3:E15)</f>
+        <v>52</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:5">
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" ht="15" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:5">
+      <c r="A24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:5">
+      <c r="A25" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:5">
+      <c r="A26" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:5">
+      <c r="A27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:5">
+      <c r="A28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" ht="15.75" spans="1:5">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:5">
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:5">
+      <c r="A32" s="27"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31.5" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2036,167 +2529,272 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.3904761904762"/>
-    <col min="2" max="2" width="6.47619047619048" style="4"/>
-    <col min="3" max="3" width="50.0857142857143"/>
-    <col min="4" max="4" width="6.47619047619048" style="8"/>
-    <col min="5" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="12.4190476190476"/>
+    <col min="2" max="2" width="6.07619047619048" style="13"/>
+    <col min="3" max="3" width="41.7142857142857"/>
+    <col min="4" max="4" width="6.07619047619048" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6"/>
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" ht="30" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>56</v>
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
+      <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" ht="45" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="60" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="45" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2205,242 +2803,244 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.6857142857143"/>
-    <col min="2" max="2" width="6.47619047619048" style="4"/>
-    <col min="3" max="3" width="51.8380952380952"/>
-    <col min="4" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="9.99047619047619"/>
+    <col min="2" max="2" width="6.07619047619048" style="13"/>
+    <col min="3" max="3" width="43.2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" ht="45" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>76</v>
+      <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" ht="60" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
+      <c r="A15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
+      <c r="A16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" ht="45" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>91</v>
+      <c r="A17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
+      <c r="A19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>95</v>
+      <c r="A20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2449,304 +3049,382 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.5047619047619"/>
-    <col min="2" max="2" width="6.07619047619048" style="4"/>
-    <col min="3" max="3" width="62.0952380952381"/>
-    <col min="4" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="10.6666666666667"/>
+    <col min="2" max="2" width="6.07619047619048" style="13"/>
+    <col min="3" max="3" width="51.9714285714286"/>
+    <col min="4" max="4" width="9.99047619047619"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" ht="30" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" ht="45" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:3">
-      <c r="A14" s="3" t="s">
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" ht="30" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" ht="45" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" ht="30" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:4">
+      <c r="A13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" ht="45" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>145</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="45" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" ht="45" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2762,117 +3440,142 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286"/>
-    <col min="2" max="2" width="8.5047619047619"/>
-    <col min="3" max="3" width="57.7714285714286"/>
-    <col min="4" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="15.6571428571429"/>
+    <col min="3" max="3" width="48.3238095238095"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" ht="30" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>161</v>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2888,29 +3591,46 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.8761904761905"/>
-    <col min="2" max="2" width="11.0666666666667"/>
-    <col min="3" max="3" width="36.9904761904762"/>
-    <col min="4" max="1025" width="11.0666666666667"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="8.23809523809524"/>
+    <col min="3" max="3" width="30.5142857142857"/>
+    <col min="4" max="1025" width="8.23809523809524"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2921,4 +3641,644 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.1047619047619"/>
+    <col min="3" max="3" width="43.3333333333333"/>
+    <col min="4" max="1025" width="8.1047619047619"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="45" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="60" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="45" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="45" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="45" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" ht="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" ht="30" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" ht="30" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="50.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.5" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -58,37 +58,37 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
   </si>
   <si>
     <t>REST</t>
@@ -864,10 +864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -936,7 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,6 +944,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,13 +1008,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +1047,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1069,15 +1070,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,19 +1111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,25 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,6 +1172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,7 +1213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,7 +1231,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,7 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,25 +1273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,19 +1285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,15 +1409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1432,23 +1423,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1457,118 +1457,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2118,13 +2118,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
@@ -2133,16 +2133,16 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2329,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2386,7 +2386,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2397,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2408,7 +2408,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2483,7 +2483,7 @@
         <v>263</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>264</v>
@@ -2497,7 +2497,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>266</v>
@@ -2511,7 +2511,7 @@
         <v>267</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>268</v>
@@ -2562,7 +2562,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2576,7 +2576,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2590,7 +2590,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2604,7 +2604,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2618,7 +2618,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2632,7 +2632,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2646,7 +2646,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2660,7 +2660,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2674,7 +2674,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2689,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2703,7 +2703,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2717,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2731,7 +2731,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2745,7 +2745,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2759,7 +2759,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2773,7 +2773,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2787,7 +2787,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2835,7 +2835,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -2846,7 +2846,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -2857,7 +2857,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>88</v>
@@ -2868,7 +2868,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -2879,7 +2879,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>92</v>
@@ -2890,7 +2890,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>94</v>
@@ -2901,7 +2901,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -2912,7 +2912,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>98</v>
@@ -2923,7 +2923,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -2934,7 +2934,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -2945,7 +2945,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>104</v>
@@ -2956,7 +2956,7 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>104</v>
@@ -2967,7 +2967,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>107</v>
@@ -2978,7 +2978,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>109</v>
@@ -2989,7 +2989,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>111</v>
@@ -3000,7 +3000,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>113</v>
@@ -3011,7 +3011,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>115</v>
@@ -3022,7 +3022,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>117</v>
@@ -3033,7 +3033,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -3082,7 +3082,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>121</v>
@@ -3096,7 +3096,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -3110,7 +3110,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>125</v>
@@ -3124,7 +3124,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>127</v>
@@ -3138,7 +3138,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>129</v>
@@ -3152,7 +3152,7 @@
         <v>130</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>131</v>
@@ -3166,7 +3166,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>133</v>
@@ -3180,7 +3180,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>135</v>
@@ -3194,7 +3194,7 @@
         <v>136</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>137</v>
@@ -3208,7 +3208,7 @@
         <v>138</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>139</v>
@@ -3222,7 +3222,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>141</v>
@@ -3236,7 +3236,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>143</v>
@@ -3250,7 +3250,7 @@
         <v>144</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>145</v>
@@ -3264,7 +3264,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>147</v>
@@ -3278,7 +3278,7 @@
         <v>148</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>149</v>
@@ -3292,7 +3292,7 @@
         <v>150</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>151</v>
@@ -3306,7 +3306,7 @@
         <v>152</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>153</v>
@@ -3320,7 +3320,7 @@
         <v>154</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>155</v>
@@ -3334,7 +3334,7 @@
         <v>156</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>157</v>
@@ -3348,7 +3348,7 @@
         <v>158</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>159</v>
@@ -3362,7 +3362,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>161</v>
@@ -3376,7 +3376,7 @@
         <v>162</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>163</v>
@@ -3390,7 +3390,7 @@
         <v>164</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>165</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>167</v>
@@ -3418,7 +3418,7 @@
         <v>169</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>170</v>
@@ -3471,7 +3471,7 @@
         <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>172</v>
@@ -3485,7 +3485,7 @@
         <v>173</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>174</v>
@@ -3499,7 +3499,7 @@
         <v>175</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>176</v>
@@ -3513,7 +3513,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>178</v>
@@ -3527,7 +3527,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>180</v>
@@ -3541,7 +3541,7 @@
         <v>181</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>182</v>
@@ -3555,7 +3555,7 @@
         <v>183</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>184</v>
@@ -3569,7 +3569,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>186</v>
@@ -3624,7 +3624,7 @@
         <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>188</v>
@@ -3679,7 +3679,7 @@
         <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>190</v>
@@ -3693,7 +3693,7 @@
         <v>191</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>192</v>
@@ -3707,7 +3707,7 @@
         <v>193</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>194</v>
@@ -3721,7 +3721,7 @@
         <v>195</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>196</v>
@@ -3735,7 +3735,7 @@
         <v>197</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>198</v>
@@ -3749,7 +3749,7 @@
         <v>199</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>200</v>
@@ -3763,7 +3763,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>202</v>
@@ -3777,7 +3777,7 @@
         <v>203</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>204</v>
@@ -3791,7 +3791,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>206</v>
@@ -3805,7 +3805,7 @@
         <v>207</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>208</v>
@@ -3819,7 +3819,7 @@
         <v>209</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>210</v>
@@ -3833,7 +3833,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>212</v>
@@ -3847,7 +3847,7 @@
         <v>213</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>214</v>
@@ -3861,7 +3861,7 @@
         <v>215</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>216</v>
@@ -3875,7 +3875,7 @@
         <v>217</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>218</v>
@@ -3889,7 +3889,7 @@
         <v>219</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>220</v>
@@ -3903,7 +3903,7 @@
         <v>221</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>222</v>
@@ -3917,7 +3917,7 @@
         <v>223</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>224</v>
@@ -3931,7 +3931,7 @@
         <v>225</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>226</v>
@@ -3945,7 +3945,7 @@
         <v>227</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>228</v>
@@ -3959,7 +3959,7 @@
         <v>229</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>230</v>
@@ -3973,7 +3973,7 @@
         <v>231</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>232</v>
@@ -3987,7 +3987,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>234</v>
@@ -4001,7 +4001,7 @@
         <v>235</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>236</v>
@@ -4015,7 +4015,7 @@
         <v>237</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>238</v>
@@ -4029,7 +4029,7 @@
         <v>239</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>240</v>
@@ -4043,7 +4043,7 @@
         <v>241</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>242</v>
@@ -4057,7 +4057,7 @@
         <v>243</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>244</v>
@@ -4071,7 +4071,7 @@
         <v>245</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>246</v>
@@ -4085,7 +4085,7 @@
         <v>247</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>248</v>
@@ -4099,7 +4099,7 @@
         <v>249</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>250</v>
@@ -4155,7 +4155,7 @@
         <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>252</v>
@@ -4169,7 +4169,7 @@
         <v>253</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>254</v>
@@ -4183,7 +4183,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>256</v>
@@ -4240,7 +4240,7 @@
         <v>257</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>258</v>
@@ -4254,7 +4254,7 @@
         <v>259</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>260</v>
@@ -4268,7 +4268,7 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>262</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -58,18 +58,21 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
     <t>Suite2</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>URL Tests</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>REST</t>
@@ -866,8 +866,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -936,7 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,13 +944,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,6 +1001,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,14 +1047,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1078,6 +1070,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,7 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,7 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,31 +1213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,13 +1231,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,13 +1255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,6 +1274,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,18 +1437,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1457,118 +1457,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2054,7 +2054,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2118,13 +2118,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
@@ -2133,16 +2133,16 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2241,7 +2241,7 @@
       <c r="A11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -2329,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2386,7 +2386,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2397,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2408,7 +2408,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2483,7 +2483,7 @@
         <v>263</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>264</v>
@@ -2497,7 +2497,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>266</v>
@@ -2511,7 +2511,7 @@
         <v>267</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>268</v>
@@ -2562,7 +2562,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2576,7 +2576,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2590,7 +2590,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2604,7 +2604,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2618,7 +2618,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2632,7 +2632,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2646,7 +2646,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2660,7 +2660,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2674,7 +2674,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2689,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2703,7 +2703,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2717,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2731,7 +2731,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2745,7 +2745,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2759,7 +2759,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2773,7 +2773,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2787,7 +2787,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2835,7 +2835,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -2846,7 +2846,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -2857,7 +2857,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>88</v>
@@ -2868,7 +2868,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -2879,7 +2879,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>92</v>
@@ -2890,7 +2890,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>94</v>
@@ -2901,7 +2901,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -2912,7 +2912,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>98</v>
@@ -2923,7 +2923,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -2934,7 +2934,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -2945,7 +2945,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>104</v>
@@ -2956,7 +2956,7 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>104</v>
@@ -2967,7 +2967,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>107</v>
@@ -2978,7 +2978,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>109</v>
@@ -2989,7 +2989,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>111</v>
@@ -3000,7 +3000,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>113</v>
@@ -3011,7 +3011,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>115</v>
@@ -3022,7 +3022,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>117</v>
@@ -3033,7 +3033,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -3082,7 +3082,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>121</v>
@@ -3096,7 +3096,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -3110,7 +3110,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>125</v>
@@ -3124,7 +3124,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>127</v>
@@ -3138,7 +3138,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>129</v>
@@ -3152,7 +3152,7 @@
         <v>130</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>131</v>
@@ -3166,7 +3166,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>133</v>
@@ -3180,7 +3180,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>135</v>
@@ -3194,7 +3194,7 @@
         <v>136</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>137</v>
@@ -3208,7 +3208,7 @@
         <v>138</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>139</v>
@@ -3222,7 +3222,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>141</v>
@@ -3236,7 +3236,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>143</v>
@@ -3250,7 +3250,7 @@
         <v>144</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>145</v>
@@ -3264,7 +3264,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>147</v>
@@ -3278,7 +3278,7 @@
         <v>148</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>149</v>
@@ -3292,7 +3292,7 @@
         <v>150</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>151</v>
@@ -3306,7 +3306,7 @@
         <v>152</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>153</v>
@@ -3320,7 +3320,7 @@
         <v>154</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>155</v>
@@ -3334,7 +3334,7 @@
         <v>156</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>157</v>
@@ -3348,7 +3348,7 @@
         <v>158</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>159</v>
@@ -3362,7 +3362,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>161</v>
@@ -3376,7 +3376,7 @@
         <v>162</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>163</v>
@@ -3390,7 +3390,7 @@
         <v>164</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>165</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>167</v>
@@ -3418,7 +3418,7 @@
         <v>169</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>170</v>
@@ -3471,7 +3471,7 @@
         <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>172</v>
@@ -3485,7 +3485,7 @@
         <v>173</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>174</v>
@@ -3499,7 +3499,7 @@
         <v>175</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>176</v>
@@ -3513,7 +3513,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>178</v>
@@ -3527,7 +3527,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>180</v>
@@ -3541,7 +3541,7 @@
         <v>181</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>182</v>
@@ -3555,7 +3555,7 @@
         <v>183</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>184</v>
@@ -3569,7 +3569,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>186</v>
@@ -3624,7 +3624,7 @@
         <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>188</v>
@@ -3679,7 +3679,7 @@
         <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>190</v>
@@ -3693,7 +3693,7 @@
         <v>191</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>192</v>
@@ -3707,7 +3707,7 @@
         <v>193</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>194</v>
@@ -3721,7 +3721,7 @@
         <v>195</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>196</v>
@@ -3735,7 +3735,7 @@
         <v>197</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>198</v>
@@ -3749,7 +3749,7 @@
         <v>199</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>200</v>
@@ -3763,7 +3763,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>202</v>
@@ -3777,7 +3777,7 @@
         <v>203</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>204</v>
@@ -3791,7 +3791,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>206</v>
@@ -3805,7 +3805,7 @@
         <v>207</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>208</v>
@@ -3819,7 +3819,7 @@
         <v>209</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>210</v>
@@ -3833,7 +3833,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>212</v>
@@ -3847,7 +3847,7 @@
         <v>213</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>214</v>
@@ -3861,7 +3861,7 @@
         <v>215</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>216</v>
@@ -3875,7 +3875,7 @@
         <v>217</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>218</v>
@@ -3889,7 +3889,7 @@
         <v>219</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>220</v>
@@ -3903,7 +3903,7 @@
         <v>221</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>222</v>
@@ -3917,7 +3917,7 @@
         <v>223</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>224</v>
@@ -3931,7 +3931,7 @@
         <v>225</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>226</v>
@@ -3945,7 +3945,7 @@
         <v>227</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>228</v>
@@ -3959,7 +3959,7 @@
         <v>229</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>230</v>
@@ -3973,7 +3973,7 @@
         <v>231</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>232</v>
@@ -3987,7 +3987,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>234</v>
@@ -4001,7 +4001,7 @@
         <v>235</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>236</v>
@@ -4015,7 +4015,7 @@
         <v>237</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>238</v>
@@ -4029,7 +4029,7 @@
         <v>239</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>240</v>
@@ -4043,7 +4043,7 @@
         <v>241</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>242</v>
@@ -4057,7 +4057,7 @@
         <v>243</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>244</v>
@@ -4071,7 +4071,7 @@
         <v>245</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>246</v>
@@ -4085,7 +4085,7 @@
         <v>247</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>248</v>
@@ -4099,7 +4099,7 @@
         <v>249</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>250</v>
@@ -4155,7 +4155,7 @@
         <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>252</v>
@@ -4169,7 +4169,7 @@
         <v>253</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>254</v>
@@ -4183,7 +4183,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>256</v>
@@ -4240,7 +4240,7 @@
         <v>257</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>258</v>
@@ -4254,7 +4254,7 @@
         <v>259</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>260</v>
@@ -4268,7 +4268,7 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>262</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -70,76 +70,76 @@
     <t>Checkout Page</t>
   </si>
   <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Suite5</t>
+  </si>
+  <si>
+    <t>Product Description Page</t>
+  </si>
+  <si>
+    <t>Suite6</t>
+  </si>
+  <si>
+    <t>Product Listing Page</t>
+  </si>
+  <si>
+    <t>Suite7</t>
+  </si>
+  <si>
+    <t>Product Strip</t>
+  </si>
+  <si>
+    <t>Suite8</t>
+  </si>
+  <si>
+    <t>Card List</t>
+  </si>
+  <si>
+    <t>Suite9</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>Application Type</t>
+  </si>
+  <si>
+    <t>Web Application</t>
+  </si>
+  <si>
+    <t>Environment(UAT,STAGING etc.)</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Valid Browser (information)</t>
+  </si>
+  <si>
+    <t>Email Output(Y/N)</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Suite5</t>
-  </si>
-  <si>
-    <t>Product Description Page</t>
-  </si>
-  <si>
-    <t>Suite6</t>
-  </si>
-  <si>
-    <t>Product Listing Page</t>
-  </si>
-  <si>
-    <t>Suite7</t>
-  </si>
-  <si>
-    <t>Product Strip</t>
-  </si>
-  <si>
-    <t>Suite8</t>
-  </si>
-  <si>
-    <t>Card List</t>
-  </si>
-  <si>
-    <t>Suite9</t>
-  </si>
-  <si>
-    <t>SETTINGS</t>
-  </si>
-  <si>
-    <t>Application Type</t>
-  </si>
-  <si>
-    <t>Web Application</t>
-  </si>
-  <si>
-    <t>Environment(UAT,STAGING etc.)</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Valid Browser (information)</t>
-  </si>
-  <si>
-    <t>Email Output(Y/N)</t>
   </si>
   <si>
     <t>Tests for Execution(Auto Generated)</t>
@@ -866,8 +866,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2054,7 +2054,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+      <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2118,76 +2118,76 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>8</v>
@@ -2196,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>8</v>
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="26">
         <v>3</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>8</v>
@@ -2231,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>8</v>
@@ -2248,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>9</v>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>12</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>167</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -70,6 +70,9 @@
     <t>Checkout Page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Suite2</t>
   </si>
   <si>
@@ -137,9 +140,6 @@
   </si>
   <si>
     <t>Email Output(Y/N)</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Tests for Execution(Auto Generated)</t>
@@ -864,10 +864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1048,6 +1048,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1056,13 +1063,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,13 +1111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,13 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1153,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,18 +1184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,18 +1219,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1249,7 +1237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,24 +1286,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,6 +1409,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1423,21 +1432,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1445,7 +1445,7 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1457,115 +1457,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2054,7 +2054,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2118,67 +2118,67 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>8</v>
@@ -2196,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>8</v>
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="26">
         <v>3</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>8</v>
@@ -2231,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>9</v>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>167</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="Suite5">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:G10"/>
+  <oleSize ref="A19:G28"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -392,6 +392,48 @@
   </si>
   <si>
     <t>Order Summary : Place Order : Ensure  that when user click on 'Place Order'  it has to navigate to  "Payment page".</t>
+  </si>
+  <si>
+    <t>IGP_TC_178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add New Address:Ensure that logged-in user is able to see add new address option. </t>
+  </si>
+  <si>
+    <t>IGP_TC_179</t>
+  </si>
+  <si>
+    <t>Sign Up:Ensure that a new user is able to sign in.</t>
+  </si>
+  <si>
+    <t>IGP_TC_180</t>
+  </si>
+  <si>
+    <t>Login through Facebook: Ensure that a new user is able to login through Facebook</t>
+  </si>
+  <si>
+    <t>IGP_TC_181</t>
+  </si>
+  <si>
+    <t>Login through Google+: Ensure that a new user is able to login through Google+</t>
+  </si>
+  <si>
+    <t>IGP_TC_182</t>
+  </si>
+  <si>
+    <t>Forgot Password: Ensure that user should be able to reset password</t>
+  </si>
+  <si>
+    <t>IGP_TC_183</t>
+  </si>
+  <si>
+    <t>Remove Product from link:Ensure that user able to remove the  product from Link.</t>
+  </si>
+  <si>
+    <t>IGP_TC_184</t>
+  </si>
+  <si>
+    <t>Delivery is not supported in USA:Ensure that the user experiences a warning message when delivery is not supported for India.</t>
   </si>
   <si>
     <t>IGP_TC_195</t>
@@ -864,9 +906,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
@@ -935,50 +977,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -990,6 +995,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1008,9 +1029,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,26 +1089,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,30 +1103,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,19 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1171,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,13 +1261,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,115 +1315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,6 +1377,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1350,31 +1410,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,21 +1455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1418,17 +1464,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,138 +1479,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2053,7 +2095,7 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2127,7 +2169,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="25">
-        <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
+        <f>IF(B4="Y",COUNTIF(Suite2!B2:B49,"Y"),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2480,13 +2522,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -2494,13 +2536,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -2508,13 +2550,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -2803,10 +2845,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3038,6 +3080,93 @@
       <c r="C20" s="15" t="s">
         <v>119</v>
       </c>
+    </row>
+    <row r="21" ht="30" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
@@ -3079,13 +3208,13 @@
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -3093,13 +3222,13 @@
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -3107,13 +3236,13 @@
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -3121,13 +3250,13 @@
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>49</v>
@@ -3135,13 +3264,13 @@
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
@@ -3149,13 +3278,13 @@
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
@@ -3163,13 +3292,13 @@
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>49</v>
@@ -3177,13 +3306,13 @@
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
@@ -3191,13 +3320,13 @@
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>49</v>
@@ -3205,13 +3334,13 @@
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -3219,13 +3348,13 @@
     </row>
     <row r="12" ht="60" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3233,13 +3362,13 @@
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -3247,13 +3376,13 @@
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -3261,13 +3390,13 @@
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>49</v>
@@ -3275,13 +3404,13 @@
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
@@ -3289,13 +3418,13 @@
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
@@ -3303,13 +3432,13 @@
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
@@ -3317,13 +3446,13 @@
     </row>
     <row r="19" ht="45" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>49</v>
@@ -3331,13 +3460,13 @@
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>49</v>
@@ -3345,13 +3474,13 @@
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
@@ -3359,13 +3488,13 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>49</v>
@@ -3373,13 +3502,13 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
@@ -3387,13 +3516,13 @@
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>49</v>
@@ -3401,27 +3530,27 @@
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>49</v>
@@ -3468,13 +3597,13 @@
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>49</v>
@@ -3482,13 +3611,13 @@
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>49</v>
@@ -3496,13 +3625,13 @@
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>49</v>
@@ -3510,13 +3639,13 @@
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>49</v>
@@ -3524,13 +3653,13 @@
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>49</v>
@@ -3538,13 +3667,13 @@
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -3552,13 +3681,13 @@
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -3566,13 +3695,13 @@
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -3621,13 +3750,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -3676,13 +3805,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>49</v>
@@ -3690,13 +3819,13 @@
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>49</v>
@@ -3704,13 +3833,13 @@
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>49</v>
@@ -3718,13 +3847,13 @@
     </row>
     <row r="5" ht="60" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>49</v>
@@ -3732,13 +3861,13 @@
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
@@ -3746,13 +3875,13 @@
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
@@ -3760,13 +3889,13 @@
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>49</v>
@@ -3774,13 +3903,13 @@
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
@@ -3788,13 +3917,13 @@
     </row>
     <row r="10" ht="60" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>49</v>
@@ -3802,13 +3931,13 @@
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -3816,13 +3945,13 @@
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3830,13 +3959,13 @@
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -3844,13 +3973,13 @@
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -3858,13 +3987,13 @@
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>49</v>
@@ -3872,13 +4001,13 @@
     </row>
     <row r="16" ht="60" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
@@ -3886,13 +4015,13 @@
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
@@ -3900,13 +4029,13 @@
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
@@ -3914,13 +4043,13 @@
     </row>
     <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>49</v>
@@ -3928,13 +4057,13 @@
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>49</v>
@@ -3942,13 +4071,13 @@
     </row>
     <row r="21" ht="45" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
@@ -3956,13 +4085,13 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>49</v>
@@ -3970,13 +4099,13 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
@@ -3984,13 +4113,13 @@
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>49</v>
@@ -3998,13 +4127,13 @@
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>49</v>
@@ -4012,13 +4141,13 @@
     </row>
     <row r="26" ht="30" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>49</v>
@@ -4026,13 +4155,13 @@
     </row>
     <row r="27" ht="45" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>49</v>
@@ -4040,13 +4169,13 @@
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>49</v>
@@ -4054,13 +4183,13 @@
     </row>
     <row r="29" ht="30" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>49</v>
@@ -4068,13 +4197,13 @@
     </row>
     <row r="30" ht="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>49</v>
@@ -4082,13 +4211,13 @@
     </row>
     <row r="31" ht="30" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>49</v>
@@ -4096,13 +4225,13 @@
     </row>
     <row r="32" ht="30" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>49</v>
@@ -4152,13 +4281,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -4166,13 +4295,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -4180,13 +4309,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -4237,13 +4366,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -4251,13 +4380,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -4265,13 +4394,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -27,12 +27,12 @@
     <definedName name="Suite5">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A19:G28"/>
+  <oleSize ref="A20:G29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Delivery is not supported in USA:Ensure that the user experiences a warning message when delivery is not supported for India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_185</t>
+  </si>
+  <si>
+    <t>Two or more Delivery addresses: Ensure that user is able to add two or more delivery addresses.</t>
   </si>
   <si>
     <t>IGP_TC_195</t>
@@ -2522,13 +2528,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -2536,13 +2542,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -2550,13 +2556,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -2847,8 +2853,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3158,10 +3164,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
+    <row r="28" ht="45" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5"/>
@@ -3208,13 +3220,13 @@
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -3222,13 +3234,13 @@
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -3236,13 +3248,13 @@
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -3250,13 +3262,13 @@
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>49</v>
@@ -3264,13 +3276,13 @@
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
@@ -3278,13 +3290,13 @@
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
@@ -3292,13 +3304,13 @@
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>49</v>
@@ -3306,13 +3318,13 @@
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
@@ -3320,13 +3332,13 @@
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>49</v>
@@ -3334,13 +3346,13 @@
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -3348,13 +3360,13 @@
     </row>
     <row r="12" ht="60" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3362,13 +3374,13 @@
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -3376,13 +3388,13 @@
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -3390,13 +3402,13 @@
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>49</v>
@@ -3404,13 +3416,13 @@
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
@@ -3418,13 +3430,13 @@
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
@@ -3432,13 +3444,13 @@
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
@@ -3446,13 +3458,13 @@
     </row>
     <row r="19" ht="45" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>49</v>
@@ -3460,13 +3472,13 @@
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>49</v>
@@ -3474,13 +3486,13 @@
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
@@ -3488,13 +3500,13 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>49</v>
@@ -3502,13 +3514,13 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
@@ -3516,13 +3528,13 @@
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>49</v>
@@ -3530,27 +3542,27 @@
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>49</v>
@@ -3597,13 +3609,13 @@
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>49</v>
@@ -3611,13 +3623,13 @@
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>49</v>
@@ -3625,13 +3637,13 @@
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>49</v>
@@ -3639,13 +3651,13 @@
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>49</v>
@@ -3653,13 +3665,13 @@
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>49</v>
@@ -3667,13 +3679,13 @@
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -3681,13 +3693,13 @@
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -3695,13 +3707,13 @@
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -3750,13 +3762,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -3805,13 +3817,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>49</v>
@@ -3819,13 +3831,13 @@
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>49</v>
@@ -3833,13 +3845,13 @@
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>49</v>
@@ -3847,13 +3859,13 @@
     </row>
     <row r="5" ht="60" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>49</v>
@@ -3861,13 +3873,13 @@
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
@@ -3875,13 +3887,13 @@
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
@@ -3889,13 +3901,13 @@
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>49</v>
@@ -3903,13 +3915,13 @@
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
@@ -3917,13 +3929,13 @@
     </row>
     <row r="10" ht="60" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>49</v>
@@ -3931,13 +3943,13 @@
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -3945,13 +3957,13 @@
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3959,13 +3971,13 @@
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -3973,13 +3985,13 @@
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -3987,13 +3999,13 @@
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>49</v>
@@ -4001,13 +4013,13 @@
     </row>
     <row r="16" ht="60" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
@@ -4015,13 +4027,13 @@
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
@@ -4029,13 +4041,13 @@
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
@@ -4043,13 +4055,13 @@
     </row>
     <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>49</v>
@@ -4057,13 +4069,13 @@
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>49</v>
@@ -4071,13 +4083,13 @@
     </row>
     <row r="21" ht="45" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
@@ -4085,13 +4097,13 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>49</v>
@@ -4099,13 +4111,13 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
@@ -4113,13 +4125,13 @@
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>49</v>
@@ -4127,13 +4139,13 @@
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>49</v>
@@ -4141,13 +4153,13 @@
     </row>
     <row r="26" ht="30" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>49</v>
@@ -4155,13 +4167,13 @@
     </row>
     <row r="27" ht="45" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>49</v>
@@ -4169,13 +4181,13 @@
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>49</v>
@@ -4183,13 +4195,13 @@
     </row>
     <row r="29" ht="30" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>49</v>
@@ -4197,13 +4209,13 @@
     </row>
     <row r="30" ht="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>49</v>
@@ -4211,13 +4223,13 @@
     </row>
     <row r="31" ht="30" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>49</v>
@@ -4225,13 +4237,13 @@
     </row>
     <row r="32" ht="30" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>49</v>
@@ -4281,13 +4293,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -4295,13 +4307,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -4309,13 +4321,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -4366,13 +4378,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -4380,13 +4392,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -4394,13 +4406,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -14,6 +14,10 @@
     <sheet name="Suite3" sheetId="4" r:id="rId4"/>
     <sheet name="Suite4" sheetId="5" r:id="rId5"/>
     <sheet name="Suite5" sheetId="6" r:id="rId6"/>
+    <sheet name="Suite6" sheetId="7" r:id="rId7"/>
+    <sheet name="Suite7" sheetId="8" r:id="rId8"/>
+    <sheet name="Suite8" sheetId="9" r:id="rId9"/>
+    <sheet name="Suite9" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Suite1">Suite1!$A$1:$C$11</definedName>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -65,6 +69,9 @@
     <t>Checkout Page</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>Suite2</t>
   </si>
   <si>
@@ -74,10 +81,7 @@
     <t>Suite3</t>
   </si>
   <si>
-    <t>Order Detail Page</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>Order Summary Page</t>
   </si>
   <si>
     <t>Suite4</t>
@@ -92,6 +96,30 @@
     <t>Suite5</t>
   </si>
   <si>
+    <t>Product Description Page</t>
+  </si>
+  <si>
+    <t>Suite6</t>
+  </si>
+  <si>
+    <t>Product Listing Page</t>
+  </si>
+  <si>
+    <t>Suite7</t>
+  </si>
+  <si>
+    <t>Product Strip</t>
+  </si>
+  <si>
+    <t>Suite8</t>
+  </si>
+  <si>
+    <t>Card List</t>
+  </si>
+  <si>
+    <t>Suite9</t>
+  </si>
+  <si>
     <t>SETTINGS</t>
   </si>
   <si>
@@ -110,6 +138,9 @@
     <t>Valid Browser (information)</t>
   </si>
   <si>
+    <t>Firefox</t>
+  </si>
+  <si>
     <t>Email Output(Y/N)</t>
   </si>
   <si>
@@ -182,6 +213,9 @@
     <t>Merge cart items: Ensure that items in the cart merged upon user logged in.</t>
   </si>
   <si>
+    <t>INVALID TC</t>
+  </si>
+  <si>
     <t>IGP_TC_095</t>
   </si>
   <si>
@@ -206,6 +240,54 @@
     <t>Cart is Empty: Ensure that user 'Cart Is Empty ' and 'Continue Shopping' message is displaying when there are no items in the cart.</t>
   </si>
   <si>
+    <t>IGP_TC_099</t>
+  </si>
+  <si>
+    <t>Place Order for Courier products:Ensure that the user is able to place order by clicking on 'Place order' button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_100</t>
+  </si>
+  <si>
+    <t>Place Order for USA products-Free Shipping:Ensure that the user is able to place order by clicking on 'Place order' button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_101</t>
+  </si>
+  <si>
+    <t>Add quantity:Ensure that user can increase the quantity of the product.</t>
+  </si>
+  <si>
+    <t>IGP_TC_102</t>
+  </si>
+  <si>
+    <t>Delivery supported in USA: Ensure that the user experiences a warning message when delivery is not supported for India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_256</t>
+  </si>
+  <si>
+    <t>Delivery supported in India: Ensure that the user experiences a warning message when delivery is not supported in places other than India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_257</t>
+  </si>
+  <si>
+    <t>Delivery supported in other countries: Ensure that the user experiences a warning message when delivery is placed in other countries.</t>
+  </si>
+  <si>
+    <t>IGP_TC_258</t>
+  </si>
+  <si>
+    <t>Chat Feature: Ensure that chat pop-up window appears.</t>
+  </si>
+  <si>
+    <t>IGP_TC_259</t>
+  </si>
+  <si>
+    <t>Remove using Remove link: Ensure that the user able to remove the item using Remove link.</t>
+  </si>
+  <si>
     <t>IGP_TC_159</t>
   </si>
   <si>
@@ -317,6 +399,66 @@
     <t>Order Summary : Place Order : Ensure  that when user click on 'Place Order'  it has to navigate to  "Payment page".</t>
   </si>
   <si>
+    <t>IGP_TC_178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add New Address:Ensure that logged-in user is able to see add new address option. </t>
+  </si>
+  <si>
+    <t>IGP_TC_179</t>
+  </si>
+  <si>
+    <t>Sign Up:Ensure that a new user is able to sign in.</t>
+  </si>
+  <si>
+    <t>IGP_TC_180</t>
+  </si>
+  <si>
+    <t>Login through Facebook: Ensure that a new user is able to login through Facebook</t>
+  </si>
+  <si>
+    <t>IGP_TC_181</t>
+  </si>
+  <si>
+    <t>Login through Google+: Ensure that a new user is able to login through Google+</t>
+  </si>
+  <si>
+    <t>IGP_TC_182</t>
+  </si>
+  <si>
+    <t>Forgot Password: Ensure that user should be able to reset password</t>
+  </si>
+  <si>
+    <t>IGP_TC_183</t>
+  </si>
+  <si>
+    <t>Remove Product from link:Ensure that user able to remove the  product from Link.</t>
+  </si>
+  <si>
+    <t>IGP_TC_184</t>
+  </si>
+  <si>
+    <t>Delivery is not supported in USA: Ensure that the user experiences a warning message when delivery is not supported for India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_185</t>
+  </si>
+  <si>
+    <t>Two or more Delivery addresses: Ensure that user is able to add two or more delivery addresses.</t>
+  </si>
+  <si>
+    <t>IGP_TC_186</t>
+  </si>
+  <si>
+    <t>Delivery is not supported in India: Ensure that the user experiences a warning message when delivery is not supported in India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_187</t>
+  </si>
+  <si>
+    <t>Delivery is not supported in other countries: Ensure that the user experiences a warning message when delivery is not supported in other countries.</t>
+  </si>
+  <si>
     <t>IGP_TC_195</t>
   </si>
   <si>
@@ -461,6 +603,9 @@
     <t>Enter Message/View Message: Ensure that  functionality of Enter Message/view message in 'Payment' page.</t>
   </si>
   <si>
+    <t>Wrong Test</t>
+  </si>
+  <si>
     <t>IGP_TC_219</t>
   </si>
   <si>
@@ -470,49 +615,313 @@
     <t>IGP_TC_082</t>
   </si>
   <si>
-    <t>Navigating to 'Order Summary' page: Ensure that the user is able to navigate to particularly selected Order Summary page.</t>
+    <t>Navigating to 'Order Summary' page-: Ensure that the user is able to navigate to particularly selected Order Summary page.</t>
   </si>
   <si>
     <t>IGP_TC_083</t>
   </si>
   <si>
-    <t>Validate 'Edit your Contact Details' field:Ensure that the user able to edit contact details on Order Summary page.</t>
+    <t>In Order Summary page, validate 'Edit your Contact Details' field-: Ensure that the user able to edit contact details on Order Summary page.</t>
   </si>
   <si>
     <t>IGP_TC_084</t>
   </si>
   <si>
-    <t>To change the Fix Date Delivery field: Ensure that delivery date can be changed.</t>
+    <t>To change the Fix Date Delivery field-: Ensure that delivery date can be changed.</t>
   </si>
   <si>
     <t>IGP_TC_085</t>
   </si>
   <si>
-    <t>To add  quantity for  selected product:Ensure that user can increase the quantity of the product.</t>
+    <t>To add  quantity for  selected product-: Ensure that user can increase the quantity of the product.</t>
   </si>
   <si>
     <t>IGP_TC_086</t>
   </si>
   <si>
-    <t>Navigate to Payment page:Ensure that the user navigates to Payment page</t>
+    <t>Navigate to Payment page-: Ensure that the user navigates to Payment page</t>
   </si>
   <si>
     <t>IGP_TC_087</t>
   </si>
   <si>
-    <t>Types of delivery options:Ensure that the selected delivery option should be updated on change.</t>
+    <t>Types of delivery options-: Ensure that the selected delivery option should be updated on change.</t>
   </si>
   <si>
     <t>IGP_TC_088</t>
   </si>
   <si>
-    <t>Apply Coupon Code:Ensure that the user able to apply coupon code.</t>
+    <t>Apply Coupon Code-: Ensure that the user able to apply coupon code.</t>
   </si>
   <si>
     <t>IGP_TC_089</t>
   </si>
   <si>
-    <t>Enter Message:Ensure that the user should be able to enter message.</t>
+    <t>Enter Message-: Ensure that the user should be able to enter message.</t>
+  </si>
+  <si>
+    <t>IGP_TC_URL</t>
+  </si>
+  <si>
+    <t>IGP url test</t>
+  </si>
+  <si>
+    <t>IGP_TC_103</t>
+  </si>
+  <si>
+    <t>Pin code validation:Ensure that the pin code box is accepting more than 6 digits, alphabets &amp; special symbols or not.</t>
+  </si>
+  <si>
+    <t>IGP_TC_104</t>
+  </si>
+  <si>
+    <t>Delivery Area Pin code validation: Ensure that error message is coming for places where delivery is not supported.</t>
+  </si>
+  <si>
+    <t>IGP_TC_105</t>
+  </si>
+  <si>
+    <t>International shipping: 'Enter Country name' field: Ensure that Enter Country name field should not accept numbers &amp; special symbols.</t>
+  </si>
+  <si>
+    <t>IGP_TC_106</t>
+  </si>
+  <si>
+    <t>Image of the gift:Ensure that the Image box should be in the left of the product description page and it has to display multiple thumbnails in different angles of the gift below it.</t>
+  </si>
+  <si>
+    <t>IGP_TC_107</t>
+  </si>
+  <si>
+    <t>Zoom in feature on the image:Ensure that when the user  mouse hover on image, it Should zoom in.</t>
+  </si>
+  <si>
+    <t>IGP_TC_108</t>
+  </si>
+  <si>
+    <t>Product name and Price-:Ensure that the selected product name and price   should be same with what we are selected in listing page.</t>
+  </si>
+  <si>
+    <t>IGP_TC_109</t>
+  </si>
+  <si>
+    <t>Size option-: Ensure that the Size option displayed when size variants exist.</t>
+  </si>
+  <si>
+    <t>IGP_TC_110</t>
+  </si>
+  <si>
+    <t>Need Help?-:Ensure that user able to send query by clicking on 'Need Help' from the "Product Description" page.</t>
+  </si>
+  <si>
+    <t>IGP_TC_111</t>
+  </si>
+  <si>
+    <t>Colour selection option-: Ensure that Colour selection option is static in case of only one colour and select colour with many pieces options in case colour variants exist .</t>
+  </si>
+  <si>
+    <t>IGP_TC_112</t>
+  </si>
+  <si>
+    <t>Personalized Now-: Ensure  that Personalized now button should display when user select the personalized product only.</t>
+  </si>
+  <si>
+    <t>IGP_TC_113</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Personalized Now-:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure that user should not navigate to the next page with out completing all the steps in 'personalize now'.</t>
+    </r>
+  </si>
+  <si>
+    <t>IGP_TC_114</t>
+  </si>
+  <si>
+    <t>Buy without 'Personalizing' the gift-: Ensure with out personalizing the product when user click on Buy now , it should not navigate.</t>
+  </si>
+  <si>
+    <t>IGP_TC_115</t>
+  </si>
+  <si>
+    <t>Shipping options should be visible: Ensure that shipping option should be visible for India.</t>
+  </si>
+  <si>
+    <t>IGP_TC_116</t>
+  </si>
+  <si>
+    <t>Shipping charges for international delivery: Ensure that there should be Shipping charges for international delivery.</t>
+  </si>
+  <si>
+    <t>IGP_TC_117</t>
+  </si>
+  <si>
+    <t>Free shipping to US and not shippable to other countries: Ensure that the items which are shippable to US are not shippable to other countries.</t>
+  </si>
+  <si>
+    <t>IGP_TC_118</t>
+  </si>
+  <si>
+    <t>Free shipping to all countries but not shippable to US: Ensure that the items which are shippable to other countries are not shippable to US.</t>
+  </si>
+  <si>
+    <t>IGP_TC_241</t>
+  </si>
+  <si>
+    <t>Fields are present: Ensure that all the respective fields should be visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_242</t>
+  </si>
+  <si>
+    <t>Check Image fields: Ensure that image fields are present.</t>
+  </si>
+  <si>
+    <t>IGP_TC_243</t>
+  </si>
+  <si>
+    <t>Error message for International Deliveries: Ensure that international delivery not possible for Flowers.</t>
+  </si>
+  <si>
+    <t>IGP_TC_244</t>
+  </si>
+  <si>
+    <t>Error message for International Deliveries: Ensure that international delivery not possible for Cakes.</t>
+  </si>
+  <si>
+    <t>IGP_TC_245</t>
+  </si>
+  <si>
+    <t>Delivery Options visibility: All the 3 delivery options should be visbile.</t>
+  </si>
+  <si>
+    <t>IGP_TC_246</t>
+  </si>
+  <si>
+    <t>Fixed Date delivery:Ensure that the user selects the Fix Date delivery option.</t>
+  </si>
+  <si>
+    <t>IGP_TC_247</t>
+  </si>
+  <si>
+    <t>Fixed time delivery:Ensure that the user selects the Fixed time delivery option.</t>
+  </si>
+  <si>
+    <t>IGP_TC_248</t>
+  </si>
+  <si>
+    <t>Midnight Delivery:Ensure that the user selects the Midnight Delivery option.</t>
+  </si>
+  <si>
+    <t>IGP_TC_249</t>
+  </si>
+  <si>
+    <t>Product Description tab: Verify that Product Description tab is visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_250</t>
+  </si>
+  <si>
+    <t>Similar Gift Recommendations: Verify that Similar Gift Recommendations heading is visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_251</t>
+  </si>
+  <si>
+    <t>Footer: Verify that Similar Gift Recommendations heading is visible.</t>
+  </si>
+  <si>
+    <t>IGP_TC_252</t>
+  </si>
+  <si>
+    <t>Buy Now: Check the functionality of Buy Now button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_253</t>
+  </si>
+  <si>
+    <t>Add to Cart: Ensure that the product is added to cart upon clicking 'Add to cart' button.</t>
+  </si>
+  <si>
+    <t>IGP_TC_254</t>
+  </si>
+  <si>
+    <t>Product variety: Ensure that user select product with different varities.</t>
+  </si>
+  <si>
+    <t>IGP_TC_255</t>
+  </si>
+  <si>
+    <t>Choose Type of Base: Ensure that user select the base.</t>
+  </si>
+  <si>
+    <t>IGP_TC_232</t>
+  </si>
+  <si>
+    <t>Navigate to Product Listing page:User is able to see all the details on Product Listing Page for Birthday Card.</t>
+  </si>
+  <si>
+    <t>IGP_TC_233</t>
+  </si>
+  <si>
+    <t>Navigate to Product Listing page:User is able to see all the details on Product Listing Page for Women.</t>
+  </si>
+  <si>
+    <t>IGP_TC_234</t>
+  </si>
+  <si>
+    <t>Navigate to Product Listing page:User is able to see all the details on Product Listing Page for Anniversary Gifts.</t>
+  </si>
+  <si>
+    <t>IGP_TC_235</t>
+  </si>
+  <si>
+    <t>Navigate to Product Strip page:User is able to see all the details on Product Strip  Page for a festival.</t>
+  </si>
+  <si>
+    <t>IGP_TC_236</t>
+  </si>
+  <si>
+    <t>Navigate to Product Strip page:User is able to see all the details on Product Strip  Page for a country.</t>
+  </si>
+  <si>
+    <t>IGP_TC_237</t>
+  </si>
+  <si>
+    <t>Navigate to Product Strip page:User is able to see all the details on Product Strip  Page for same delivery gifts.</t>
+  </si>
+  <si>
+    <t>IGP_TC_238</t>
+  </si>
+  <si>
+    <t>Navigate to Card List page:User is able to see all the details on Card List Page for Birthday.</t>
+  </si>
+  <si>
+    <t>IGP_TC_239</t>
+  </si>
+  <si>
+    <t>Navigate to Card List page:User is able to see all the details on Card List Page for Gifts for Women.</t>
+  </si>
+  <si>
+    <t>IGP_TC_240</t>
+  </si>
+  <si>
+    <t>Navigate to Card List page:User is able to see all the details on Card List Page for Anniversary Gifts.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +934,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -592,13 +1001,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -626,13 +1028,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -652,13 +1047,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +1092,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,13 +1114,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,6 +1132,27 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -760,7 +1176,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +1212,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,25 +1260,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,103 +1344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,153 +1502,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1249,18 +1692,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -1277,6 +1714,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1678,357 +2118,475 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6095238095238" style="13"/>
-    <col min="2" max="2" width="21.4666666666667" style="13"/>
-    <col min="3" max="3" width="10.6666666666667" style="13"/>
-    <col min="4" max="4" width="6.60952380952381" style="13"/>
-    <col min="5" max="5" width="22.1714285714286" style="13"/>
-    <col min="6" max="1025" width="6.07619047619048" style="13"/>
+    <col min="1" max="1" width="31.8571428571429" style="20"/>
+    <col min="2" max="2" width="17.2761904761905" style="20"/>
+    <col min="3" max="3" width="12.8571428571429" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.07619047619048" style="20"/>
+    <col min="5" max="5" width="18.0857142857143" style="20"/>
+    <col min="6" max="1025" width="6.07619047619048" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+    <row r="1" ht="15.75" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+    <row r="3" ht="15.75" spans="1:5">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="25">
+        <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="18">
-        <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25">
+        <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:5">
+      <c r="A8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25">
+        <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:5">
+      <c r="A9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="10" ht="15.75" spans="1:5">
+      <c r="A10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="18">
-        <f>IF(B7="Y",COUNTIF(Suite4!B3:B51,"Y"),0)</f>
+      <c r="C10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="15" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="15" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="15" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="15" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="15" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="15" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" ht="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="20" t="s">
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="D11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:5">
+      <c r="A17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:5">
+      <c r="A18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:5">
+      <c r="A19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:5">
+      <c r="A20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21">
-        <f>SUM(E3:E7)</f>
-        <v>3</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="12"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="29">
+        <f>SUM(E3:E15)</f>
+        <v>32</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:5">
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" ht="15" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:5">
+      <c r="A24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:5">
+      <c r="A25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:5">
+      <c r="A26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:5">
+      <c r="A27" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:5">
+      <c r="A28" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" ht="15.75" spans="1:5">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:5">
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:5">
+      <c r="A32" s="27"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31.5" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2036,167 +2594,272 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.3904761904762"/>
-    <col min="2" max="2" width="6.47619047619048" style="4"/>
-    <col min="3" max="3" width="50.0857142857143"/>
-    <col min="4" max="4" width="6.47619047619048" style="8"/>
-    <col min="5" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="12.4190476190476"/>
+    <col min="2" max="2" width="6.07619047619048" style="13"/>
+    <col min="3" max="3" width="41.7142857142857"/>
+    <col min="4" max="4" width="6.07619047619048" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6"/>
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" ht="30" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>56</v>
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" ht="45" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="60" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="45" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2205,242 +2868,359 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.6857142857143"/>
-    <col min="2" max="2" width="6.47619047619048" style="4"/>
-    <col min="3" max="3" width="51.8380952380952"/>
-    <col min="4" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="9.99047619047619"/>
+    <col min="2" max="2" width="6.07619047619048" style="13"/>
+    <col min="3" max="3" width="43.2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" ht="45" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
+      <c r="A6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>76</v>
+      <c r="A7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
+      <c r="A11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" ht="60" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
+      <c r="A15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
+      <c r="A16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" ht="45" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>91</v>
+      <c r="A17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
+      <c r="A19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="A20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" ht="45" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" ht="45" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" ht="60" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2449,304 +3229,382 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.5047619047619"/>
-    <col min="2" max="2" width="6.07619047619048" style="4"/>
-    <col min="3" max="3" width="62.0952380952381"/>
-    <col min="4" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="10.6666666666667"/>
+    <col min="2" max="2" width="6.07619047619048" style="13"/>
+    <col min="3" max="3" width="51.9714285714286"/>
+    <col min="4" max="4" width="9.99047619047619"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="45" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" ht="30" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" ht="45" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" ht="45" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" ht="30" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" ht="45" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>145</v>
+      <c r="C25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" ht="45" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2762,117 +3620,142 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286"/>
-    <col min="2" max="2" width="8.5047619047619"/>
-    <col min="3" max="3" width="57.7714285714286"/>
-    <col min="4" max="1025" width="8.5047619047619"/>
+    <col min="1" max="1" width="15.6571428571429"/>
+    <col min="3" max="3" width="48.3238095238095"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" ht="30" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>161</v>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2888,29 +3771,46 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.8761904761905"/>
-    <col min="2" max="2" width="11.0666666666667"/>
-    <col min="3" max="3" width="36.9904761904762"/>
-    <col min="4" max="1025" width="11.0666666666667"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="8.23809523809524"/>
+    <col min="3" max="3" width="30.5142857142857"/>
+    <col min="4" max="1025" width="8.23809523809524"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2921,4 +3821,644 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.1047619047619"/>
+    <col min="3" max="3" width="43.3333333333333"/>
+    <col min="4" max="1025" width="8.1047619047619"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="45" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="45" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="60" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="45" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="45" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="45" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" ht="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" ht="30" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" ht="30" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="50.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.5" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Checkout Page</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Y</t>
   </si>
   <si>
     <t>Suite2</t>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>HTML Report</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>XLS REPORT</t>
@@ -1001,6 +998,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1028,6 +1032,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1047,6 +1058,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,21 +1110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,6 +1118,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,20 +1140,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,25 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,31 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,7 +1221,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,25 +1311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,55 +1341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,138 +1499,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2119,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2451,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,10 +2456,10 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,10 +2467,10 @@
     </row>
     <row r="28" ht="15.75" spans="1:5">
       <c r="A28" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2531,58 +2528,58 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2610,252 +2607,252 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" t="s">
         <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:8">
       <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>70</v>
-      </c>
       <c r="D11" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:4">
       <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:4">
       <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="45" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>80</v>
-      </c>
       <c r="D16" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="45" spans="1:3">
       <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2883,335 +2880,335 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:3">
       <c r="A2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:3">
       <c r="A4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:3">
       <c r="A5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
       <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
       <c r="A7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:3">
       <c r="A8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:3">
       <c r="A9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
       <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
       <c r="A11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:3">
       <c r="A12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:3">
       <c r="A14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
       <c r="A15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
       <c r="A16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
       <c r="A17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" ht="60" spans="1:3">
       <c r="A18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
       <c r="A19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
       <c r="A20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:3">
       <c r="A21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:3">
       <c r="A23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:3">
       <c r="A24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
       <c r="A25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:3">
       <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:3">
       <c r="A27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" ht="45" spans="1:3">
       <c r="A28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:3">
       <c r="A29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" ht="60" spans="1:3">
       <c r="A30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3245,366 +3242,366 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>153</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>155</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>157</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>167</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:4">
       <c r="A19" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>181</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>187</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
       <c r="A26" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3634,128 +3631,128 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3787,30 +3784,30 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3842,450 +3839,450 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>226</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="45" spans="1:4">
       <c r="A21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
       <c r="A26" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:4">
       <c r="A27" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>264</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:4">
       <c r="A29" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:4">
       <c r="A30" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:4">
       <c r="A31" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>270</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="30" spans="1:4">
       <c r="A32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4318,58 +4315,58 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>276</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4403,58 +4400,58 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -69,40 +69,40 @@
     <t>Checkout Page</t>
   </si>
   <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Suite5</t>
+  </si>
+  <si>
+    <t>Product Description Page</t>
+  </si>
+  <si>
+    <t>Suite6</t>
+  </si>
+  <si>
+    <t>Product Listing Page</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Suite5</t>
-  </si>
-  <si>
-    <t>Product Description Page</t>
-  </si>
-  <si>
-    <t>Suite6</t>
-  </si>
-  <si>
-    <t>Product Listing Page</t>
   </si>
   <si>
     <t>Suite7</t>
@@ -998,7 +998,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,6 +1006,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,13 +1070,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1109,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1132,14 +1140,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,25 +1341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,24 +1354,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,18 +1499,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1519,118 +1519,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2180,22 +2180,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>8</v>
@@ -2204,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>8</v>
@@ -2222,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>8</v>
@@ -2258,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2459,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2470,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2545,7 +2545,7 @@
         <v>284</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>285</v>
@@ -2559,7 +2559,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>287</v>
@@ -2573,7 +2573,7 @@
         <v>288</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>289</v>
@@ -2624,7 +2624,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>49</v>
@@ -2638,7 +2638,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>52</v>
@@ -2652,7 +2652,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>54</v>
@@ -2666,7 +2666,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>56</v>
@@ -2680,7 +2680,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>58</v>
@@ -2694,7 +2694,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>61</v>
@@ -2708,7 +2708,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>63</v>
@@ -2722,7 +2722,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -2736,7 +2736,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>67</v>
@@ -2751,7 +2751,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>69</v>
@@ -2765,7 +2765,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>71</v>
@@ -2779,7 +2779,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>73</v>
@@ -2793,7 +2793,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>75</v>
@@ -2807,7 +2807,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>77</v>
@@ -2821,7 +2821,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
@@ -2835,7 +2835,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>81</v>
@@ -2849,7 +2849,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>83</v>
@@ -2897,7 +2897,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>85</v>
@@ -2908,7 +2908,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>87</v>
@@ -2919,7 +2919,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>89</v>
@@ -2930,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>91</v>
@@ -2941,7 +2941,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>93</v>
@@ -2952,7 +2952,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>95</v>
@@ -2963,7 +2963,7 @@
         <v>96</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>97</v>
@@ -2974,7 +2974,7 @@
         <v>98</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>99</v>
@@ -2985,7 +2985,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>101</v>
@@ -2996,7 +2996,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>103</v>
@@ -3007,7 +3007,7 @@
         <v>104</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>105</v>
@@ -3018,7 +3018,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>105</v>
@@ -3029,7 +3029,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>108</v>
@@ -3040,7 +3040,7 @@
         <v>109</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>110</v>
@@ -3051,7 +3051,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>112</v>
@@ -3062,7 +3062,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>114</v>
@@ -3073,7 +3073,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>116</v>
@@ -3084,7 +3084,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>118</v>
@@ -3095,7 +3095,7 @@
         <v>119</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>120</v>
@@ -3106,7 +3106,7 @@
         <v>121</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>122</v>
@@ -3117,7 +3117,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>124</v>
@@ -3128,7 +3128,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>126</v>
@@ -3139,7 +3139,7 @@
         <v>127</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>128</v>
@@ -3150,7 +3150,7 @@
         <v>129</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>130</v>
@@ -3161,7 +3161,7 @@
         <v>131</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>132</v>
@@ -3172,7 +3172,7 @@
         <v>133</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>134</v>
@@ -3183,7 +3183,7 @@
         <v>135</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>136</v>
@@ -3194,7 +3194,7 @@
         <v>137</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>138</v>
@@ -3205,7 +3205,7 @@
         <v>139</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>140</v>
@@ -3259,7 +3259,7 @@
         <v>141</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>142</v>
@@ -3273,7 +3273,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>144</v>
@@ -3287,7 +3287,7 @@
         <v>145</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>146</v>
@@ -3301,7 +3301,7 @@
         <v>147</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>148</v>
@@ -3315,7 +3315,7 @@
         <v>149</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>150</v>
@@ -3329,7 +3329,7 @@
         <v>151</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>152</v>
@@ -3343,7 +3343,7 @@
         <v>153</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>154</v>
@@ -3357,7 +3357,7 @@
         <v>155</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>156</v>
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>158</v>
@@ -3385,7 +3385,7 @@
         <v>159</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>160</v>
@@ -3399,7 +3399,7 @@
         <v>161</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>162</v>
@@ -3413,7 +3413,7 @@
         <v>163</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>164</v>
@@ -3427,7 +3427,7 @@
         <v>165</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>166</v>
@@ -3441,7 +3441,7 @@
         <v>167</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>168</v>
@@ -3455,7 +3455,7 @@
         <v>169</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>170</v>
@@ -3469,7 +3469,7 @@
         <v>171</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>172</v>
@@ -3483,7 +3483,7 @@
         <v>173</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>174</v>
@@ -3497,7 +3497,7 @@
         <v>175</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>176</v>
@@ -3511,7 +3511,7 @@
         <v>177</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>178</v>
@@ -3525,7 +3525,7 @@
         <v>179</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>180</v>
@@ -3539,7 +3539,7 @@
         <v>181</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>182</v>
@@ -3553,7 +3553,7 @@
         <v>183</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>184</v>
@@ -3567,7 +3567,7 @@
         <v>185</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>186</v>
@@ -3595,7 +3595,7 @@
         <v>190</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>191</v>
@@ -3648,7 +3648,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>193</v>
@@ -3662,7 +3662,7 @@
         <v>194</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>195</v>
@@ -3676,7 +3676,7 @@
         <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>197</v>
@@ -3690,7 +3690,7 @@
         <v>198</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>199</v>
@@ -3704,7 +3704,7 @@
         <v>200</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>201</v>
@@ -3718,7 +3718,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>203</v>
@@ -3732,7 +3732,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>205</v>
@@ -3746,7 +3746,7 @@
         <v>206</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>207</v>
@@ -3801,7 +3801,7 @@
         <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>209</v>
@@ -3856,7 +3856,7 @@
         <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>211</v>
@@ -3870,7 +3870,7 @@
         <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>213</v>
@@ -3884,7 +3884,7 @@
         <v>214</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>215</v>
@@ -3898,7 +3898,7 @@
         <v>216</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>217</v>
@@ -3912,7 +3912,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>219</v>
@@ -3926,7 +3926,7 @@
         <v>220</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>221</v>
@@ -3940,7 +3940,7 @@
         <v>222</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>223</v>
@@ -3954,7 +3954,7 @@
         <v>224</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>225</v>
@@ -3968,7 +3968,7 @@
         <v>226</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>227</v>
@@ -3982,7 +3982,7 @@
         <v>228</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>229</v>
@@ -3996,7 +3996,7 @@
         <v>230</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>231</v>
@@ -4010,7 +4010,7 @@
         <v>232</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>233</v>
@@ -4024,7 +4024,7 @@
         <v>234</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>235</v>
@@ -4038,7 +4038,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>237</v>
@@ -4052,7 +4052,7 @@
         <v>238</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>239</v>
@@ -4066,7 +4066,7 @@
         <v>240</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>241</v>
@@ -4080,7 +4080,7 @@
         <v>242</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>243</v>
@@ -4094,7 +4094,7 @@
         <v>244</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>245</v>
@@ -4108,7 +4108,7 @@
         <v>246</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>247</v>
@@ -4122,7 +4122,7 @@
         <v>248</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>249</v>
@@ -4136,7 +4136,7 @@
         <v>250</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>251</v>
@@ -4150,7 +4150,7 @@
         <v>252</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>253</v>
@@ -4164,7 +4164,7 @@
         <v>254</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>255</v>
@@ -4178,7 +4178,7 @@
         <v>256</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>257</v>
@@ -4192,7 +4192,7 @@
         <v>258</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>259</v>
@@ -4206,7 +4206,7 @@
         <v>260</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>261</v>
@@ -4220,7 +4220,7 @@
         <v>262</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>263</v>
@@ -4234,7 +4234,7 @@
         <v>264</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>265</v>
@@ -4248,7 +4248,7 @@
         <v>266</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>267</v>
@@ -4262,7 +4262,7 @@
         <v>268</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>269</v>
@@ -4276,7 +4276,7 @@
         <v>270</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>271</v>
@@ -4332,7 +4332,7 @@
         <v>272</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>273</v>
@@ -4346,7 +4346,7 @@
         <v>274</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>275</v>
@@ -4360,7 +4360,7 @@
         <v>276</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>277</v>
@@ -4417,7 +4417,7 @@
         <v>278</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>279</v>
@@ -4431,7 +4431,7 @@
         <v>280</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>281</v>
@@ -4445,7 +4445,7 @@
         <v>282</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>283</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -57,24 +57,27 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Suite3</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
   </si>
   <si>
     <t>Product Listing Page</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Suite7</t>
@@ -998,7 +998,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,13 +1006,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,6 +1063,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,14 +1109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1140,6 +1132,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,31 +1275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,13 +1293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,13 +1317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,6 +1336,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,18 +1499,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1519,118 +1519,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2198,13 +2198,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2213,16 +2213,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>8</v>
@@ -2258,19 +2258,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2459,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2470,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2545,7 +2545,7 @@
         <v>284</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>285</v>
@@ -2559,7 +2559,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>287</v>
@@ -2573,7 +2573,7 @@
         <v>288</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>289</v>
@@ -2624,7 +2624,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>49</v>
@@ -2638,7 +2638,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>52</v>
@@ -2652,7 +2652,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>54</v>
@@ -2666,7 +2666,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>56</v>
@@ -2680,7 +2680,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>58</v>
@@ -2694,7 +2694,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>61</v>
@@ -2708,7 +2708,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>63</v>
@@ -2722,7 +2722,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -2736,7 +2736,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>67</v>
@@ -2751,7 +2751,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>69</v>
@@ -2765,7 +2765,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>71</v>
@@ -2779,7 +2779,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>73</v>
@@ -2793,7 +2793,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>75</v>
@@ -2807,7 +2807,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>77</v>
@@ -2821,7 +2821,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
@@ -2835,7 +2835,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>81</v>
@@ -2849,7 +2849,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>83</v>
@@ -2897,7 +2897,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>85</v>
@@ -2908,7 +2908,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>87</v>
@@ -2919,7 +2919,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>89</v>
@@ -2930,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>91</v>
@@ -2941,7 +2941,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>93</v>
@@ -2952,7 +2952,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>95</v>
@@ -2963,7 +2963,7 @@
         <v>96</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>97</v>
@@ -2974,7 +2974,7 @@
         <v>98</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>99</v>
@@ -2985,7 +2985,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>101</v>
@@ -2996,7 +2996,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>103</v>
@@ -3007,7 +3007,7 @@
         <v>104</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>105</v>
@@ -3018,7 +3018,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>105</v>
@@ -3029,7 +3029,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>108</v>
@@ -3040,7 +3040,7 @@
         <v>109</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>110</v>
@@ -3051,7 +3051,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>112</v>
@@ -3062,7 +3062,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>114</v>
@@ -3073,7 +3073,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>116</v>
@@ -3084,7 +3084,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>118</v>
@@ -3095,7 +3095,7 @@
         <v>119</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>120</v>
@@ -3106,7 +3106,7 @@
         <v>121</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>122</v>
@@ -3117,7 +3117,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>124</v>
@@ -3128,7 +3128,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>126</v>
@@ -3139,7 +3139,7 @@
         <v>127</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>128</v>
@@ -3150,7 +3150,7 @@
         <v>129</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>130</v>
@@ -3161,7 +3161,7 @@
         <v>131</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>132</v>
@@ -3172,7 +3172,7 @@
         <v>133</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>134</v>
@@ -3183,7 +3183,7 @@
         <v>135</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>136</v>
@@ -3194,7 +3194,7 @@
         <v>137</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>138</v>
@@ -3205,7 +3205,7 @@
         <v>139</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>140</v>
@@ -3259,7 +3259,7 @@
         <v>141</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>142</v>
@@ -3273,7 +3273,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>144</v>
@@ -3287,7 +3287,7 @@
         <v>145</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>146</v>
@@ -3301,7 +3301,7 @@
         <v>147</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>148</v>
@@ -3315,7 +3315,7 @@
         <v>149</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>150</v>
@@ -3329,7 +3329,7 @@
         <v>151</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>152</v>
@@ -3343,7 +3343,7 @@
         <v>153</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>154</v>
@@ -3357,7 +3357,7 @@
         <v>155</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>156</v>
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>158</v>
@@ -3385,7 +3385,7 @@
         <v>159</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>160</v>
@@ -3399,7 +3399,7 @@
         <v>161</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>162</v>
@@ -3413,7 +3413,7 @@
         <v>163</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>164</v>
@@ -3427,7 +3427,7 @@
         <v>165</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>166</v>
@@ -3441,7 +3441,7 @@
         <v>167</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>168</v>
@@ -3455,7 +3455,7 @@
         <v>169</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>170</v>
@@ -3469,7 +3469,7 @@
         <v>171</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>172</v>
@@ -3483,7 +3483,7 @@
         <v>173</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>174</v>
@@ -3497,7 +3497,7 @@
         <v>175</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>176</v>
@@ -3511,7 +3511,7 @@
         <v>177</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>178</v>
@@ -3525,7 +3525,7 @@
         <v>179</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>180</v>
@@ -3539,7 +3539,7 @@
         <v>181</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>182</v>
@@ -3553,7 +3553,7 @@
         <v>183</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>184</v>
@@ -3567,7 +3567,7 @@
         <v>185</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>186</v>
@@ -3581,7 +3581,7 @@
         <v>187</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>188</v>
@@ -3595,7 +3595,7 @@
         <v>190</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>191</v>
@@ -3648,7 +3648,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>193</v>
@@ -3662,7 +3662,7 @@
         <v>194</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>195</v>
@@ -3676,7 +3676,7 @@
         <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>197</v>
@@ -3690,7 +3690,7 @@
         <v>198</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>199</v>
@@ -3704,7 +3704,7 @@
         <v>200</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>201</v>
@@ -3718,7 +3718,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>203</v>
@@ -3732,7 +3732,7 @@
         <v>204</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>205</v>
@@ -3746,7 +3746,7 @@
         <v>206</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>207</v>
@@ -3801,7 +3801,7 @@
         <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>209</v>
@@ -3856,7 +3856,7 @@
         <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>211</v>
@@ -3870,7 +3870,7 @@
         <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>213</v>
@@ -3884,7 +3884,7 @@
         <v>214</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>215</v>
@@ -3898,7 +3898,7 @@
         <v>216</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>217</v>
@@ -3912,7 +3912,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>219</v>
@@ -3926,7 +3926,7 @@
         <v>220</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>221</v>
@@ -3940,7 +3940,7 @@
         <v>222</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>223</v>
@@ -3954,7 +3954,7 @@
         <v>224</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>225</v>
@@ -3968,7 +3968,7 @@
         <v>226</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>227</v>
@@ -3982,7 +3982,7 @@
         <v>228</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>229</v>
@@ -3996,7 +3996,7 @@
         <v>230</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>231</v>
@@ -4010,7 +4010,7 @@
         <v>232</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>233</v>
@@ -4024,7 +4024,7 @@
         <v>234</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>235</v>
@@ -4038,7 +4038,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>237</v>
@@ -4052,7 +4052,7 @@
         <v>238</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>239</v>
@@ -4066,7 +4066,7 @@
         <v>240</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>241</v>
@@ -4080,7 +4080,7 @@
         <v>242</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>243</v>
@@ -4094,7 +4094,7 @@
         <v>244</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>245</v>
@@ -4108,7 +4108,7 @@
         <v>246</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>247</v>
@@ -4122,7 +4122,7 @@
         <v>248</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>249</v>
@@ -4136,7 +4136,7 @@
         <v>250</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>251</v>
@@ -4150,7 +4150,7 @@
         <v>252</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>253</v>
@@ -4164,7 +4164,7 @@
         <v>254</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>255</v>
@@ -4178,7 +4178,7 @@
         <v>256</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>257</v>
@@ -4192,7 +4192,7 @@
         <v>258</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>259</v>
@@ -4206,7 +4206,7 @@
         <v>260</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>261</v>
@@ -4220,7 +4220,7 @@
         <v>262</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>263</v>
@@ -4234,7 +4234,7 @@
         <v>264</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>265</v>
@@ -4248,7 +4248,7 @@
         <v>266</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>267</v>
@@ -4262,7 +4262,7 @@
         <v>268</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>269</v>
@@ -4276,7 +4276,7 @@
         <v>270</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>271</v>
@@ -4332,7 +4332,7 @@
         <v>272</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>273</v>
@@ -4346,7 +4346,7 @@
         <v>274</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>275</v>
@@ -4360,7 +4360,7 @@
         <v>276</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>277</v>
@@ -4417,7 +4417,7 @@
         <v>278</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>279</v>
@@ -4431,7 +4431,7 @@
         <v>280</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>281</v>
@@ -4445,7 +4445,7 @@
         <v>282</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>283</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -927,9 +927,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2391,7 +2391,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Valid Browser (information)</t>
-  </si>
-  <si>
-    <t>Firefox</t>
   </si>
   <si>
     <t>Email Output(Y/N)</t>
@@ -927,9 +924,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2116,7 +2113,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2380,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2388,7 +2385,7 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>14</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
@@ -2425,7 +2422,7 @@
     </row>
     <row r="24" ht="15.75" spans="1:5">
       <c r="A24" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2434,10 +2431,10 @@
     </row>
     <row r="25" ht="15.75" spans="1:5">
       <c r="A25" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>8</v>
@@ -2456,7 +2453,7 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>8</v>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="28" ht="15.75" spans="1:5">
       <c r="A28" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>8</v>
@@ -2528,58 +2525,58 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2607,252 +2604,252 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>54</v>
-      </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:8">
       <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="D11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>73</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:4">
       <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:4">
       <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="D15" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="45" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="D16" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="45" spans="1:3">
       <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2880,335 +2877,335 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:3">
       <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:3">
       <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:3">
       <c r="A5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
       <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
       <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:3">
       <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:3">
       <c r="A9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
       <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
       <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:3">
       <c r="A12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:3">
       <c r="A14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
       <c r="A15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
       <c r="A16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
       <c r="A17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" ht="60" spans="1:3">
       <c r="A18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
       <c r="A19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
       <c r="A20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:3">
       <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:3">
       <c r="A23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:3">
       <c r="A24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
       <c r="A25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:3">
       <c r="A26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:3">
       <c r="A27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" ht="45" spans="1:3">
       <c r="A28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:3">
       <c r="A29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" ht="60" spans="1:3">
       <c r="A30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3242,366 +3239,366 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>152</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>166</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>168</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>170</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:4">
       <c r="A19" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>182</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>186</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
       <c r="A26" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3631,128 +3628,128 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3784,30 +3781,30 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3839,450 +3836,450 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>211</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>215</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:4">
       <c r="A5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>225</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>231</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="45" spans="1:4">
       <c r="A21" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>251</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>257</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
       <c r="A26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:4">
       <c r="A27" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>261</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>263</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:4">
       <c r="A29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:4">
       <c r="A30" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>267</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:4">
       <c r="A31" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="30" spans="1:4">
       <c r="A32" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>271</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4315,58 +4312,58 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4400,58 +4397,58 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -57,39 +57,39 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
-  </si>
-  <si>
     <t>REST</t>
   </si>
   <si>
@@ -150,7 +150,7 @@
     <t>EMAIL ID</t>
   </si>
   <si>
-    <t>test@test.com, b@tx.com</t>
+    <t>sanyam.arora@testingxperts.com</t>
   </si>
   <si>
     <t>HTML Report</t>
@@ -995,14 +995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,9 +1006,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,21 +1037,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1052,9 +1051,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,9 +1073,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,9 +1089,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,16 +1105,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,15 +1126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,13 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1200,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,31 +1320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,109 +1338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,26 +1394,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,37 +1424,40 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,11 +1477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,142 +1496,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1721,6 +1721,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2113,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2187,7 +2190,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2195,13 +2198,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2210,16 +2213,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2228,10 +2231,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2241,14 +2244,14 @@
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -2259,15 +2262,15 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>8</v>
+      <c r="B9" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -2283,7 +2286,7 @@
       <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -2300,7 +2303,7 @@
       <c r="A11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -2313,23 +2316,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -2388,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2400,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2433,7 +2436,7 @@
       <c r="A25" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="26"/>
@@ -2445,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2456,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2467,7 +2470,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2489,19 +2492,22 @@
     </row>
     <row r="31" ht="15.75" spans="1:5">
       <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" ht="15.75" spans="1:5">
       <c r="A32" s="27"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" display="sanyam.arora@testingxperts.com"/>
+  </hyperlinks>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -2542,7 +2548,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>284</v>
@@ -2556,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
@@ -2570,7 +2576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>288</v>
@@ -2621,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2635,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2649,7 +2655,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2663,7 +2669,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2677,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2691,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2705,7 +2711,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2719,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2733,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2748,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2762,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2776,7 +2782,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2790,7 +2796,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2804,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2818,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2832,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2846,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2894,7 +2900,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -2905,7 +2911,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -2916,7 +2922,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>88</v>
@@ -2927,7 +2933,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -2938,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>92</v>
@@ -2949,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>94</v>
@@ -2960,7 +2966,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -2971,7 +2977,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>98</v>
@@ -2982,7 +2988,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -2993,7 +2999,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -3004,7 +3010,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>104</v>
@@ -3015,7 +3021,7 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>104</v>
@@ -3026,7 +3032,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>107</v>
@@ -3037,7 +3043,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>109</v>
@@ -3048,7 +3054,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>111</v>
@@ -3059,7 +3065,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>113</v>
@@ -3070,7 +3076,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>115</v>
@@ -3081,7 +3087,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>117</v>
@@ -3092,7 +3098,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -3103,7 +3109,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>121</v>
@@ -3114,7 +3120,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>123</v>
@@ -3125,7 +3131,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>125</v>
@@ -3136,7 +3142,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>127</v>
@@ -3147,7 +3153,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>129</v>
@@ -3158,7 +3164,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>131</v>
@@ -3169,7 +3175,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>133</v>
@@ -3180,7 +3186,7 @@
         <v>134</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>135</v>
@@ -3191,7 +3197,7 @@
         <v>136</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>137</v>
@@ -3202,7 +3208,7 @@
         <v>138</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>139</v>
@@ -3256,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>141</v>
@@ -3270,7 +3276,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>143</v>
@@ -3284,7 +3290,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>145</v>
@@ -3298,7 +3304,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>147</v>
@@ -3312,7 +3318,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>149</v>
@@ -3326,7 +3332,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
@@ -3340,7 +3346,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>153</v>
@@ -3354,7 +3360,7 @@
         <v>154</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>155</v>
@@ -3368,7 +3374,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>157</v>
@@ -3382,7 +3388,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>159</v>
@@ -3396,7 +3402,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>161</v>
@@ -3410,7 +3416,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>163</v>
@@ -3424,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>165</v>
@@ -3438,7 +3444,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>167</v>
@@ -3452,7 +3458,7 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>169</v>
@@ -3466,7 +3472,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>171</v>
@@ -3480,7 +3486,7 @@
         <v>172</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>173</v>
@@ -3494,7 +3500,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>175</v>
@@ -3508,7 +3514,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>177</v>
@@ -3522,7 +3528,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>179</v>
@@ -3536,7 +3542,7 @@
         <v>180</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>181</v>
@@ -3550,7 +3556,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>183</v>
@@ -3564,7 +3570,7 @@
         <v>184</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>185</v>
@@ -3578,7 +3584,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>187</v>
@@ -3592,7 +3598,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>190</v>
@@ -3645,7 +3651,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>192</v>
@@ -3659,7 +3665,7 @@
         <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>194</v>
@@ -3673,7 +3679,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>196</v>
@@ -3687,7 +3693,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>198</v>
@@ -3701,7 +3707,7 @@
         <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>200</v>
@@ -3715,7 +3721,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>202</v>
@@ -3729,7 +3735,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>204</v>
@@ -3743,7 +3749,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>206</v>
@@ -3798,7 +3804,7 @@
         <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>208</v>
@@ -3853,7 +3859,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>210</v>
@@ -3867,7 +3873,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>212</v>
@@ -3881,7 +3887,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>214</v>
@@ -3895,7 +3901,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>216</v>
@@ -3909,7 +3915,7 @@
         <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>218</v>
@@ -3923,7 +3929,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>220</v>
@@ -3937,7 +3943,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>222</v>
@@ -3951,7 +3957,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>224</v>
@@ -3965,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>226</v>
@@ -3979,7 +3985,7 @@
         <v>227</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>228</v>
@@ -3993,7 +3999,7 @@
         <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>230</v>
@@ -4007,7 +4013,7 @@
         <v>231</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>232</v>
@@ -4021,7 +4027,7 @@
         <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>234</v>
@@ -4035,7 +4041,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>236</v>
@@ -4049,7 +4055,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>238</v>
@@ -4063,7 +4069,7 @@
         <v>239</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>240</v>
@@ -4077,7 +4083,7 @@
         <v>241</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>242</v>
@@ -4091,7 +4097,7 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>244</v>
@@ -4105,7 +4111,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>246</v>
@@ -4119,7 +4125,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>248</v>
@@ -4133,7 +4139,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>250</v>
@@ -4147,7 +4153,7 @@
         <v>251</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>252</v>
@@ -4161,7 +4167,7 @@
         <v>253</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>254</v>
@@ -4175,7 +4181,7 @@
         <v>255</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>256</v>
@@ -4189,7 +4195,7 @@
         <v>257</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>258</v>
@@ -4203,7 +4209,7 @@
         <v>259</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>260</v>
@@ -4217,7 +4223,7 @@
         <v>261</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>262</v>
@@ -4231,7 +4237,7 @@
         <v>263</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>264</v>
@@ -4245,7 +4251,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>266</v>
@@ -4259,7 +4265,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>268</v>
@@ -4273,7 +4279,7 @@
         <v>269</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>270</v>
@@ -4329,7 +4335,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>272</v>
@@ -4343,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
@@ -4357,7 +4363,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>276</v>
@@ -4414,7 +4420,7 @@
         <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>278</v>
@@ -4428,7 +4434,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>280</v>
@@ -4442,7 +4448,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>282</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -57,24 +57,27 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Suite3</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
   </si>
   <si>
     <t>URL Tests</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>REST</t>
@@ -995,7 +995,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,30 +1013,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,6 +1023,21 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1051,16 +1052,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,9 +1067,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,8 +1083,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,17 +1100,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1126,9 +1120,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,19 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1194,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,13 +1296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,43 +1320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,61 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,17 +1394,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,40 +1433,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,17 +1483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,138 +1496,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2198,13 +2198,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2213,16 +2213,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2270,7 +2270,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -2391,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2470,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2548,7 +2548,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>284</v>
@@ -2562,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
@@ -2576,7 +2576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>288</v>
@@ -2627,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2641,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2655,7 +2655,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2669,7 +2669,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2683,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2711,7 +2711,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2725,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2739,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2754,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2768,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2782,7 +2782,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2796,7 +2796,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2824,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2838,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2852,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2900,7 +2900,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -2911,7 +2911,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -2922,7 +2922,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>88</v>
@@ -2933,7 +2933,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -2944,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>92</v>
@@ -2955,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>94</v>
@@ -2966,7 +2966,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -2977,7 +2977,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>98</v>
@@ -2988,7 +2988,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -2999,7 +2999,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -3010,7 +3010,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>104</v>
@@ -3021,7 +3021,7 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>104</v>
@@ -3032,7 +3032,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>107</v>
@@ -3043,7 +3043,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>109</v>
@@ -3054,7 +3054,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>111</v>
@@ -3065,7 +3065,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>113</v>
@@ -3076,7 +3076,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>115</v>
@@ -3087,7 +3087,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>117</v>
@@ -3098,7 +3098,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -3109,7 +3109,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>121</v>
@@ -3120,7 +3120,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>123</v>
@@ -3131,7 +3131,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>125</v>
@@ -3142,7 +3142,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>127</v>
@@ -3153,7 +3153,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>129</v>
@@ -3164,7 +3164,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>131</v>
@@ -3175,7 +3175,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>133</v>
@@ -3186,7 +3186,7 @@
         <v>134</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>135</v>
@@ -3197,7 +3197,7 @@
         <v>136</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>137</v>
@@ -3208,7 +3208,7 @@
         <v>138</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>139</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>141</v>
@@ -3276,7 +3276,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>143</v>
@@ -3290,7 +3290,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>145</v>
@@ -3304,7 +3304,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>147</v>
@@ -3318,7 +3318,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>149</v>
@@ -3332,7 +3332,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
@@ -3346,7 +3346,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>153</v>
@@ -3360,7 +3360,7 @@
         <v>154</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>155</v>
@@ -3374,7 +3374,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>157</v>
@@ -3388,7 +3388,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>159</v>
@@ -3402,7 +3402,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>161</v>
@@ -3416,7 +3416,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>163</v>
@@ -3430,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>165</v>
@@ -3444,7 +3444,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>167</v>
@@ -3458,7 +3458,7 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>169</v>
@@ -3472,7 +3472,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>171</v>
@@ -3486,7 +3486,7 @@
         <v>172</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>173</v>
@@ -3500,7 +3500,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>175</v>
@@ -3514,7 +3514,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>177</v>
@@ -3528,7 +3528,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>179</v>
@@ -3542,7 +3542,7 @@
         <v>180</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>181</v>
@@ -3556,7 +3556,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>183</v>
@@ -3570,7 +3570,7 @@
         <v>184</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>185</v>
@@ -3584,7 +3584,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>187</v>
@@ -3598,7 +3598,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>190</v>
@@ -3651,7 +3651,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>192</v>
@@ -3665,7 +3665,7 @@
         <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>194</v>
@@ -3679,7 +3679,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>196</v>
@@ -3693,7 +3693,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>198</v>
@@ -3707,7 +3707,7 @@
         <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>200</v>
@@ -3721,7 +3721,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>202</v>
@@ -3735,7 +3735,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>204</v>
@@ -3749,7 +3749,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>206</v>
@@ -3804,7 +3804,7 @@
         <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>208</v>
@@ -3859,7 +3859,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>210</v>
@@ -3873,7 +3873,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>212</v>
@@ -3887,7 +3887,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>214</v>
@@ -3901,7 +3901,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>216</v>
@@ -3915,7 +3915,7 @@
         <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>218</v>
@@ -3929,7 +3929,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>220</v>
@@ -3943,7 +3943,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>222</v>
@@ -3957,7 +3957,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>224</v>
@@ -3971,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>226</v>
@@ -3985,7 +3985,7 @@
         <v>227</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>228</v>
@@ -3999,7 +3999,7 @@
         <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>230</v>
@@ -4013,7 +4013,7 @@
         <v>231</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>232</v>
@@ -4027,7 +4027,7 @@
         <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>234</v>
@@ -4041,7 +4041,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>236</v>
@@ -4055,7 +4055,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>238</v>
@@ -4069,7 +4069,7 @@
         <v>239</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>240</v>
@@ -4083,7 +4083,7 @@
         <v>241</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>242</v>
@@ -4097,7 +4097,7 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>244</v>
@@ -4111,7 +4111,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>246</v>
@@ -4125,7 +4125,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>248</v>
@@ -4139,7 +4139,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>250</v>
@@ -4153,7 +4153,7 @@
         <v>251</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>252</v>
@@ -4167,7 +4167,7 @@
         <v>253</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>254</v>
@@ -4181,7 +4181,7 @@
         <v>255</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>256</v>
@@ -4195,7 +4195,7 @@
         <v>257</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>258</v>
@@ -4209,7 +4209,7 @@
         <v>259</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>260</v>
@@ -4223,7 +4223,7 @@
         <v>261</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>262</v>
@@ -4237,7 +4237,7 @@
         <v>263</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>264</v>
@@ -4251,7 +4251,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>266</v>
@@ -4265,7 +4265,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>268</v>
@@ -4279,7 +4279,7 @@
         <v>269</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>270</v>
@@ -4335,7 +4335,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>272</v>
@@ -4349,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
@@ -4363,7 +4363,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>276</v>
@@ -4420,7 +4420,7 @@
         <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>278</v>
@@ -4434,7 +4434,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>280</v>
@@ -4448,7 +4448,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>282</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -57,37 +57,37 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
   </si>
   <si>
     <t>REST</t>
@@ -995,7 +995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,6 +1003,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,13 +1067,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1106,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1129,14 +1137,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,7 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,7 +1272,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,25 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,24 +1351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,18 +1496,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1516,118 +1516,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2198,13 +2198,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2213,16 +2213,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2391,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2470,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2548,7 +2548,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>284</v>
@@ -2562,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
@@ -2576,7 +2576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>288</v>
@@ -2627,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2641,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2655,7 +2655,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2669,7 +2669,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2683,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2711,7 +2711,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2725,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2739,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2754,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2768,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2782,7 +2782,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2796,7 +2796,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2824,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2838,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2852,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2900,7 +2900,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -2911,7 +2911,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -2922,7 +2922,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>88</v>
@@ -2933,7 +2933,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -2944,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>92</v>
@@ -2955,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>94</v>
@@ -2966,7 +2966,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -2977,7 +2977,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>98</v>
@@ -2988,7 +2988,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -2999,7 +2999,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -3010,7 +3010,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>104</v>
@@ -3021,7 +3021,7 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>104</v>
@@ -3032,7 +3032,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>107</v>
@@ -3043,7 +3043,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>109</v>
@@ -3054,7 +3054,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>111</v>
@@ -3065,7 +3065,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>113</v>
@@ -3076,7 +3076,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>115</v>
@@ -3087,7 +3087,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>117</v>
@@ -3098,7 +3098,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -3109,7 +3109,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>121</v>
@@ -3120,7 +3120,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>123</v>
@@ -3131,7 +3131,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>125</v>
@@ -3142,7 +3142,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>127</v>
@@ -3153,7 +3153,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>129</v>
@@ -3164,7 +3164,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>131</v>
@@ -3175,7 +3175,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>133</v>
@@ -3186,7 +3186,7 @@
         <v>134</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>135</v>
@@ -3197,7 +3197,7 @@
         <v>136</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>137</v>
@@ -3208,7 +3208,7 @@
         <v>138</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>139</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>141</v>
@@ -3276,7 +3276,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>143</v>
@@ -3290,7 +3290,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>145</v>
@@ -3304,7 +3304,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>147</v>
@@ -3318,7 +3318,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>149</v>
@@ -3332,7 +3332,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
@@ -3346,7 +3346,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>153</v>
@@ -3360,7 +3360,7 @@
         <v>154</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>155</v>
@@ -3374,7 +3374,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>157</v>
@@ -3388,7 +3388,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>159</v>
@@ -3402,7 +3402,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>161</v>
@@ -3416,7 +3416,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>163</v>
@@ -3430,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>165</v>
@@ -3444,7 +3444,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>167</v>
@@ -3458,7 +3458,7 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>169</v>
@@ -3472,7 +3472,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>171</v>
@@ -3486,7 +3486,7 @@
         <v>172</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>173</v>
@@ -3500,7 +3500,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>175</v>
@@ -3514,7 +3514,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>177</v>
@@ -3528,7 +3528,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>179</v>
@@ -3542,7 +3542,7 @@
         <v>180</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>181</v>
@@ -3556,7 +3556,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>183</v>
@@ -3570,7 +3570,7 @@
         <v>184</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>185</v>
@@ -3584,7 +3584,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>187</v>
@@ -3598,7 +3598,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>190</v>
@@ -3651,7 +3651,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>192</v>
@@ -3665,7 +3665,7 @@
         <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>194</v>
@@ -3679,7 +3679,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>196</v>
@@ -3693,7 +3693,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>198</v>
@@ -3707,7 +3707,7 @@
         <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>200</v>
@@ -3721,7 +3721,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>202</v>
@@ -3735,7 +3735,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>204</v>
@@ -3749,7 +3749,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>206</v>
@@ -3804,7 +3804,7 @@
         <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>208</v>
@@ -3859,7 +3859,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>210</v>
@@ -3873,7 +3873,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>212</v>
@@ -3887,7 +3887,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>214</v>
@@ -3901,7 +3901,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>216</v>
@@ -3915,7 +3915,7 @@
         <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>218</v>
@@ -3929,7 +3929,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>220</v>
@@ -3943,7 +3943,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>222</v>
@@ -3957,7 +3957,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>224</v>
@@ -3971,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>226</v>
@@ -3985,7 +3985,7 @@
         <v>227</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>228</v>
@@ -3999,7 +3999,7 @@
         <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>230</v>
@@ -4013,7 +4013,7 @@
         <v>231</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>232</v>
@@ -4027,7 +4027,7 @@
         <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>234</v>
@@ -4041,7 +4041,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>236</v>
@@ -4055,7 +4055,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>238</v>
@@ -4069,7 +4069,7 @@
         <v>239</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>240</v>
@@ -4083,7 +4083,7 @@
         <v>241</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>242</v>
@@ -4097,7 +4097,7 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>244</v>
@@ -4111,7 +4111,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>246</v>
@@ -4125,7 +4125,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>248</v>
@@ -4139,7 +4139,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>250</v>
@@ -4153,7 +4153,7 @@
         <v>251</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>252</v>
@@ -4167,7 +4167,7 @@
         <v>253</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>254</v>
@@ -4181,7 +4181,7 @@
         <v>255</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>256</v>
@@ -4195,7 +4195,7 @@
         <v>257</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>258</v>
@@ -4209,7 +4209,7 @@
         <v>259</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>260</v>
@@ -4223,7 +4223,7 @@
         <v>261</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>262</v>
@@ -4237,7 +4237,7 @@
         <v>263</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>264</v>
@@ -4251,7 +4251,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>266</v>
@@ -4265,7 +4265,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>268</v>
@@ -4279,7 +4279,7 @@
         <v>269</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>270</v>
@@ -4335,7 +4335,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>272</v>
@@ -4349,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
@@ -4363,7 +4363,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>276</v>
@@ -4420,7 +4420,7 @@
         <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>278</v>
@@ -4434,7 +4434,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>280</v>
@@ -4448,7 +4448,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>282</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -87,22 +87,22 @@
     <t>URL Tests</t>
   </si>
   <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Suite5</t>
+  </si>
+  <si>
+    <t>Product Description Page</t>
+  </si>
+  <si>
+    <t>Suite6</t>
+  </si>
+  <si>
+    <t>Product Listing Page</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Suite5</t>
-  </si>
-  <si>
-    <t>Product Description Page</t>
-  </si>
-  <si>
-    <t>Suite6</t>
-  </si>
-  <si>
-    <t>Product Listing Page</t>
   </si>
   <si>
     <t>Suite7</t>
@@ -923,10 +923,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -995,7 +995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,13 +1003,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,6 +1060,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,14 +1106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1137,6 +1129,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,7 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,31 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,13 +1290,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,13 +1314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,6 +1333,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,18 +1496,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1516,118 +1516,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2234,22 +2234,22 @@
         <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>8</v>
@@ -2258,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -2287,7 +2287,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>9</v>
@@ -2304,7 +2304,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>9</v>
@@ -2391,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2470,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2548,7 +2548,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>284</v>
@@ -2562,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
@@ -2576,7 +2576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>288</v>
@@ -2627,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2641,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2655,7 +2655,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2669,7 +2669,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2683,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2711,7 +2711,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2725,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2739,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2754,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2768,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2782,7 +2782,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2796,7 +2796,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2824,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2838,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2852,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2900,7 +2900,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -2911,7 +2911,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -2922,7 +2922,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>88</v>
@@ -2933,7 +2933,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -2944,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>92</v>
@@ -2955,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>94</v>
@@ -2966,7 +2966,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -2977,7 +2977,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>98</v>
@@ -2988,7 +2988,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -2999,7 +2999,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -3010,7 +3010,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>104</v>
@@ -3021,7 +3021,7 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>104</v>
@@ -3032,7 +3032,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>107</v>
@@ -3043,7 +3043,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>109</v>
@@ -3054,7 +3054,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>111</v>
@@ -3065,7 +3065,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>113</v>
@@ -3076,7 +3076,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>115</v>
@@ -3087,7 +3087,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>117</v>
@@ -3098,7 +3098,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -3109,7 +3109,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>121</v>
@@ -3120,7 +3120,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>123</v>
@@ -3131,7 +3131,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>125</v>
@@ -3142,7 +3142,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>127</v>
@@ -3153,7 +3153,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>129</v>
@@ -3164,7 +3164,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>131</v>
@@ -3175,7 +3175,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>133</v>
@@ -3186,7 +3186,7 @@
         <v>134</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>135</v>
@@ -3197,7 +3197,7 @@
         <v>136</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>137</v>
@@ -3208,7 +3208,7 @@
         <v>138</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>139</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>141</v>
@@ -3276,7 +3276,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>143</v>
@@ -3290,7 +3290,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>145</v>
@@ -3304,7 +3304,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>147</v>
@@ -3318,7 +3318,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>149</v>
@@ -3332,7 +3332,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
@@ -3346,7 +3346,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>153</v>
@@ -3360,7 +3360,7 @@
         <v>154</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>155</v>
@@ -3374,7 +3374,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>157</v>
@@ -3388,7 +3388,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>159</v>
@@ -3402,7 +3402,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>161</v>
@@ -3416,7 +3416,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>163</v>
@@ -3430,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>165</v>
@@ -3444,7 +3444,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>167</v>
@@ -3458,7 +3458,7 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>169</v>
@@ -3472,7 +3472,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>171</v>
@@ -3486,7 +3486,7 @@
         <v>172</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>173</v>
@@ -3500,7 +3500,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>175</v>
@@ -3514,7 +3514,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>177</v>
@@ -3528,7 +3528,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>179</v>
@@ -3542,7 +3542,7 @@
         <v>180</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>181</v>
@@ -3556,7 +3556,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>183</v>
@@ -3570,7 +3570,7 @@
         <v>184</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>185</v>
@@ -3598,7 +3598,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>190</v>
@@ -3651,7 +3651,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>192</v>
@@ -3665,7 +3665,7 @@
         <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>194</v>
@@ -3679,7 +3679,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>196</v>
@@ -3693,7 +3693,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>198</v>
@@ -3707,7 +3707,7 @@
         <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>200</v>
@@ -3721,7 +3721,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>202</v>
@@ -3735,7 +3735,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>204</v>
@@ -3749,7 +3749,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>206</v>
@@ -3804,7 +3804,7 @@
         <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>208</v>
@@ -3859,7 +3859,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>210</v>
@@ -3873,7 +3873,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>212</v>
@@ -3887,7 +3887,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>214</v>
@@ -3901,7 +3901,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>216</v>
@@ -3915,7 +3915,7 @@
         <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>218</v>
@@ -3929,7 +3929,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>220</v>
@@ -3943,7 +3943,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>222</v>
@@ -3957,7 +3957,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>224</v>
@@ -3971,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>226</v>
@@ -3985,7 +3985,7 @@
         <v>227</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>228</v>
@@ -3999,7 +3999,7 @@
         <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>230</v>
@@ -4013,7 +4013,7 @@
         <v>231</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>232</v>
@@ -4027,7 +4027,7 @@
         <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>234</v>
@@ -4041,7 +4041,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>236</v>
@@ -4055,7 +4055,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>238</v>
@@ -4069,7 +4069,7 @@
         <v>239</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>240</v>
@@ -4083,7 +4083,7 @@
         <v>241</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>242</v>
@@ -4097,7 +4097,7 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>244</v>
@@ -4111,7 +4111,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>246</v>
@@ -4125,7 +4125,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>248</v>
@@ -4139,7 +4139,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>250</v>
@@ -4153,7 +4153,7 @@
         <v>251</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>252</v>
@@ -4167,7 +4167,7 @@
         <v>253</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>254</v>
@@ -4181,7 +4181,7 @@
         <v>255</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>256</v>
@@ -4195,7 +4195,7 @@
         <v>257</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>258</v>
@@ -4209,7 +4209,7 @@
         <v>259</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>260</v>
@@ -4223,7 +4223,7 @@
         <v>261</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>262</v>
@@ -4237,7 +4237,7 @@
         <v>263</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>264</v>
@@ -4251,7 +4251,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>266</v>
@@ -4265,7 +4265,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>268</v>
@@ -4279,7 +4279,7 @@
         <v>269</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>270</v>
@@ -4307,7 +4307,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -4335,7 +4335,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>272</v>
@@ -4349,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
@@ -4363,7 +4363,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>276</v>
@@ -4390,7 +4390,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -4420,7 +4420,7 @@
         <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>278</v>
@@ -4434,7 +4434,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>280</v>
@@ -4448,7 +4448,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>282</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -57,24 +57,27 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Suite3</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
   </si>
   <si>
     <t>Product Listing Page</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Suite7</t>
@@ -923,10 +923,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -994,23 +994,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1030,7 +1023,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,6 +1045,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1052,16 +1098,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,68 +1128,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,18 +1170,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1200,13 +1188,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,49 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,55 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,19 +1278,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,37 +1418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,16 +1449,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,143 +1480,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2198,13 +2198,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2213,16 +2213,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>8</v>
@@ -2258,19 +2258,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>9</v>
@@ -2287,7 +2287,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>9</v>
@@ -2304,7 +2304,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>9</v>
@@ -2391,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2470,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2548,7 +2548,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>284</v>
@@ -2562,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
@@ -2576,7 +2576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>288</v>
@@ -2627,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2641,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2655,7 +2655,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2669,7 +2669,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2683,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2711,7 +2711,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2725,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2739,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2754,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2768,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2782,7 +2782,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2796,7 +2796,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2824,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2838,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2852,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2900,7 +2900,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>84</v>
@@ -2911,7 +2911,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>86</v>
@@ -2922,7 +2922,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>88</v>
@@ -2933,7 +2933,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>90</v>
@@ -2944,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>92</v>
@@ -2955,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>94</v>
@@ -2966,7 +2966,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -2977,7 +2977,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>98</v>
@@ -2988,7 +2988,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>100</v>
@@ -2999,7 +2999,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>102</v>
@@ -3010,7 +3010,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>104</v>
@@ -3021,7 +3021,7 @@
         <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>104</v>
@@ -3032,7 +3032,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>107</v>
@@ -3043,7 +3043,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>109</v>
@@ -3054,7 +3054,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>111</v>
@@ -3065,7 +3065,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>113</v>
@@ -3076,7 +3076,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>115</v>
@@ -3087,7 +3087,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>117</v>
@@ -3098,7 +3098,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>119</v>
@@ -3109,7 +3109,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>121</v>
@@ -3120,7 +3120,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>123</v>
@@ -3131,7 +3131,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>125</v>
@@ -3142,7 +3142,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>127</v>
@@ -3153,7 +3153,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>129</v>
@@ -3164,7 +3164,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>131</v>
@@ -3175,7 +3175,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>133</v>
@@ -3186,7 +3186,7 @@
         <v>134</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>135</v>
@@ -3197,7 +3197,7 @@
         <v>136</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>137</v>
@@ -3208,7 +3208,7 @@
         <v>138</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>139</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>141</v>
@@ -3276,7 +3276,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>143</v>
@@ -3290,7 +3290,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>145</v>
@@ -3304,7 +3304,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>147</v>
@@ -3318,7 +3318,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>149</v>
@@ -3332,7 +3332,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
@@ -3346,7 +3346,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>153</v>
@@ -3360,7 +3360,7 @@
         <v>154</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>155</v>
@@ -3374,7 +3374,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>157</v>
@@ -3388,7 +3388,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>159</v>
@@ -3402,7 +3402,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>161</v>
@@ -3416,7 +3416,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>163</v>
@@ -3430,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>165</v>
@@ -3444,7 +3444,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>167</v>
@@ -3458,7 +3458,7 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>169</v>
@@ -3472,7 +3472,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>171</v>
@@ -3486,7 +3486,7 @@
         <v>172</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>173</v>
@@ -3500,7 +3500,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>175</v>
@@ -3514,7 +3514,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>177</v>
@@ -3528,7 +3528,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>179</v>
@@ -3542,7 +3542,7 @@
         <v>180</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>181</v>
@@ -3556,7 +3556,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>183</v>
@@ -3570,7 +3570,7 @@
         <v>184</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>185</v>
@@ -3584,7 +3584,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>187</v>
@@ -3598,7 +3598,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>190</v>
@@ -3651,7 +3651,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>192</v>
@@ -3665,7 +3665,7 @@
         <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>194</v>
@@ -3679,7 +3679,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>196</v>
@@ -3693,7 +3693,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>198</v>
@@ -3707,7 +3707,7 @@
         <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>200</v>
@@ -3721,7 +3721,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>202</v>
@@ -3735,7 +3735,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>204</v>
@@ -3749,7 +3749,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>206</v>
@@ -3804,7 +3804,7 @@
         <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>208</v>
@@ -3859,7 +3859,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>210</v>
@@ -3873,7 +3873,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>212</v>
@@ -3887,7 +3887,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>214</v>
@@ -3901,7 +3901,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>216</v>
@@ -3915,7 +3915,7 @@
         <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>218</v>
@@ -3929,7 +3929,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>220</v>
@@ -3943,7 +3943,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>222</v>
@@ -3957,7 +3957,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>224</v>
@@ -3971,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>226</v>
@@ -3985,7 +3985,7 @@
         <v>227</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>228</v>
@@ -3999,7 +3999,7 @@
         <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>230</v>
@@ -4013,7 +4013,7 @@
         <v>231</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>232</v>
@@ -4027,7 +4027,7 @@
         <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>234</v>
@@ -4041,7 +4041,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>236</v>
@@ -4055,7 +4055,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>238</v>
@@ -4069,7 +4069,7 @@
         <v>239</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>240</v>
@@ -4083,7 +4083,7 @@
         <v>241</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>242</v>
@@ -4097,7 +4097,7 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>244</v>
@@ -4111,7 +4111,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>246</v>
@@ -4125,7 +4125,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>248</v>
@@ -4139,7 +4139,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>250</v>
@@ -4153,7 +4153,7 @@
         <v>251</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>252</v>
@@ -4167,7 +4167,7 @@
         <v>253</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>254</v>
@@ -4181,7 +4181,7 @@
         <v>255</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>256</v>
@@ -4195,7 +4195,7 @@
         <v>257</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>258</v>
@@ -4209,7 +4209,7 @@
         <v>259</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>260</v>
@@ -4223,7 +4223,7 @@
         <v>261</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>262</v>
@@ -4237,7 +4237,7 @@
         <v>263</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>264</v>
@@ -4251,7 +4251,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>266</v>
@@ -4265,7 +4265,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>268</v>
@@ -4279,7 +4279,7 @@
         <v>269</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>270</v>
@@ -4335,7 +4335,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>272</v>
@@ -4349,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
@@ -4363,7 +4363,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>276</v>
@@ -4420,7 +4420,7 @@
         <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>278</v>
@@ -4434,7 +4434,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>280</v>
@@ -4448,7 +4448,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>282</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -923,10 +923,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -994,9 +994,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1004,6 +1006,11 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1023,21 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,45 +1038,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1098,23 +1052,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,15 +1075,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,13 +1182,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,7 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,31 +1260,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,25 +1302,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,37 +1344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,17 +1418,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,25 +1469,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1480,17 +1491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1499,135 +1499,135 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2562,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
@@ -2576,7 +2576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>288</v>
@@ -4307,7 +4307,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -4349,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
@@ -4363,7 +4363,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>276</v>
@@ -4390,7 +4390,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -4434,7 +4434,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>280</v>
@@ -4448,7 +4448,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>282</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -57,25 +57,25 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
     <t>Suite2</t>
   </si>
   <si>
     <t>Payment</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Suite3</t>
@@ -923,10 +923,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -994,10 +994,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,11 +1011,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1030,23 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,16 +1044,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,14 +1068,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1099,17 +1075,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1129,6 +1099,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1137,6 +1115,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,6 +1170,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1182,13 +1188,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,90 +1248,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1302,7 +1260,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,13 +1302,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,19 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,6 +1394,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1420,20 +1435,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,36 +1472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1491,143 +1480,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2115,8 +2115,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2180,25 +2180,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
@@ -2216,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
@@ -2234,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2391,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2470,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2548,7 +2548,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>284</v>
@@ -2562,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
@@ -2576,7 +2576,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>288</v>
@@ -2627,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2641,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2655,7 +2655,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2669,7 +2669,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2683,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>57</v>
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -2711,7 +2711,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>62</v>
@@ -2725,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>64</v>
@@ -2739,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>66</v>
@@ -2754,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>68</v>
@@ -2768,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>70</v>
@@ -2782,7 +2782,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>72</v>
@@ -2796,7 +2796,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>74</v>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>76</v>
@@ -2824,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>78</v>
@@ -2838,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>80</v>
@@ -2852,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>82</v>
@@ -2870,8 +2870,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3120,7 +3120,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>123</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>141</v>
@@ -3276,7 +3276,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>143</v>
@@ -3290,7 +3290,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>145</v>
@@ -3304,7 +3304,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>147</v>
@@ -3318,7 +3318,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>149</v>
@@ -3332,7 +3332,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
@@ -3346,7 +3346,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>153</v>
@@ -3360,7 +3360,7 @@
         <v>154</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>155</v>
@@ -3374,7 +3374,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>157</v>
@@ -3388,7 +3388,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>159</v>
@@ -3402,7 +3402,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>161</v>
@@ -3416,7 +3416,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>163</v>
@@ -3430,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>165</v>
@@ -3444,7 +3444,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>167</v>
@@ -3458,7 +3458,7 @@
         <v>168</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>169</v>
@@ -3472,7 +3472,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>171</v>
@@ -3486,7 +3486,7 @@
         <v>172</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>173</v>
@@ -3500,7 +3500,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>175</v>
@@ -3514,7 +3514,7 @@
         <v>176</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>177</v>
@@ -3528,7 +3528,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>179</v>
@@ -3542,7 +3542,7 @@
         <v>180</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>181</v>
@@ -3556,7 +3556,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>183</v>
@@ -3570,7 +3570,7 @@
         <v>184</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>185</v>
@@ -3584,7 +3584,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>187</v>
@@ -3598,7 +3598,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>190</v>
@@ -3651,7 +3651,7 @@
         <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>192</v>
@@ -3665,7 +3665,7 @@
         <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>194</v>
@@ -3679,7 +3679,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>196</v>
@@ -3693,7 +3693,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>198</v>
@@ -3707,7 +3707,7 @@
         <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>200</v>
@@ -3721,7 +3721,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>202</v>
@@ -3735,7 +3735,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>204</v>
@@ -3749,7 +3749,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>206</v>
@@ -3804,7 +3804,7 @@
         <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>208</v>
@@ -3859,7 +3859,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>210</v>
@@ -3873,7 +3873,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>212</v>
@@ -3887,7 +3887,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>214</v>
@@ -3901,7 +3901,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>216</v>
@@ -3915,7 +3915,7 @@
         <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>218</v>
@@ -3929,7 +3929,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>220</v>
@@ -3943,7 +3943,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>222</v>
@@ -3957,7 +3957,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>224</v>
@@ -3971,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>226</v>
@@ -3985,7 +3985,7 @@
         <v>227</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>228</v>
@@ -3999,7 +3999,7 @@
         <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>230</v>
@@ -4013,7 +4013,7 @@
         <v>231</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>232</v>
@@ -4027,7 +4027,7 @@
         <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>234</v>
@@ -4041,7 +4041,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>236</v>
@@ -4055,7 +4055,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>238</v>
@@ -4069,7 +4069,7 @@
         <v>239</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>240</v>
@@ -4083,7 +4083,7 @@
         <v>241</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>242</v>
@@ -4097,7 +4097,7 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>244</v>
@@ -4111,7 +4111,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>246</v>
@@ -4125,7 +4125,7 @@
         <v>247</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>248</v>
@@ -4139,7 +4139,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>250</v>
@@ -4153,7 +4153,7 @@
         <v>251</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>252</v>
@@ -4167,7 +4167,7 @@
         <v>253</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>254</v>
@@ -4181,7 +4181,7 @@
         <v>255</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>256</v>
@@ -4195,7 +4195,7 @@
         <v>257</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>258</v>
@@ -4209,7 +4209,7 @@
         <v>259</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>260</v>
@@ -4223,7 +4223,7 @@
         <v>261</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>262</v>
@@ -4237,7 +4237,7 @@
         <v>263</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>264</v>
@@ -4251,7 +4251,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>266</v>
@@ -4265,7 +4265,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>268</v>
@@ -4279,7 +4279,7 @@
         <v>269</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>270</v>
@@ -4335,7 +4335,7 @@
         <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>272</v>
@@ -4349,7 +4349,7 @@
         <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
@@ -4363,7 +4363,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>276</v>
@@ -4420,7 +4420,7 @@
         <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>278</v>
@@ -4434,7 +4434,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>280</v>
@@ -4448,7 +4448,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>282</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Suite9" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="Suite1">Suite1!$A$1:$C$11</definedName>
+    <definedName name="Suite1">Suite1!$A$1:$C$10</definedName>
     <definedName name="Suite2">Suite2!$A$1:$C$7</definedName>
     <definedName name="Suite3">#REF!</definedName>
     <definedName name="Suite4">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -57,27 +57,27 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Suite3</t>
   </si>
   <si>
@@ -199,15 +199,6 @@
   </si>
   <si>
     <t>Delivery pin code update: Ensure that the pin code is updating upon change.</t>
-  </si>
-  <si>
-    <t>IGP_TC_094</t>
-  </si>
-  <si>
-    <t>Merge cart items: Ensure that items in the cart merged upon user logged in.</t>
-  </si>
-  <si>
-    <t>INVALID TC</t>
   </si>
   <si>
     <t>IGP_TC_095</t>
@@ -2116,7 +2107,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2171,8 +2162,8 @@
         <v>10</v>
       </c>
       <c r="E3" s="25">
-        <f>IF(B3="Y",COUNTIF(Suite1!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2180,25 +2171,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
@@ -2216,7 +2207,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
@@ -2234,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2262,7 +2253,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2391,7 +2382,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2403,7 +2394,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2448,7 +2439,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2459,7 +2450,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2470,7 +2461,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2545,13 +2536,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -2559,13 +2550,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -2573,13 +2564,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -2594,10 +2585,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2627,7 +2618,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -2641,7 +2632,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -2655,7 +2646,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>53</v>
@@ -2669,7 +2660,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2683,24 +2674,24 @@
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" ht="30" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -2708,154 +2699,140 @@
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" ht="45" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" ht="45" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:8">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="D10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="19"/>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="45" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:4">
+      <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="60" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="45" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" ht="60" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" ht="45" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="45" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" ht="45" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2870,8 +2847,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2897,321 +2874,321 @@
     </row>
     <row r="2" ht="45" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="60" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" ht="45" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" ht="60" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3259,13 +3236,13 @@
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -3273,13 +3250,13 @@
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -3287,13 +3264,13 @@
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -3301,13 +3278,13 @@
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>49</v>
@@ -3315,13 +3292,13 @@
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
@@ -3329,13 +3306,13 @@
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
@@ -3343,13 +3320,13 @@
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>49</v>
@@ -3357,13 +3334,13 @@
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
@@ -3371,13 +3348,13 @@
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>49</v>
@@ -3385,13 +3362,13 @@
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -3399,13 +3376,13 @@
     </row>
     <row r="12" ht="60" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3413,13 +3390,13 @@
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -3427,13 +3404,13 @@
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -3441,13 +3418,13 @@
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>49</v>
@@ -3455,13 +3432,13 @@
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
@@ -3469,13 +3446,13 @@
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
@@ -3483,13 +3460,13 @@
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
@@ -3497,13 +3474,13 @@
     </row>
     <row r="19" ht="45" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>49</v>
@@ -3511,13 +3488,13 @@
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>49</v>
@@ -3525,13 +3502,13 @@
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
@@ -3539,13 +3516,13 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>49</v>
@@ -3553,13 +3530,13 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
@@ -3567,13 +3544,13 @@
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>49</v>
@@ -3581,27 +3558,27 @@
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>49</v>
@@ -3648,13 +3625,13 @@
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>49</v>
@@ -3662,13 +3639,13 @@
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>49</v>
@@ -3676,13 +3653,13 @@
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>49</v>
@@ -3690,13 +3667,13 @@
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>49</v>
@@ -3704,13 +3681,13 @@
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>49</v>
@@ -3718,13 +3695,13 @@
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -3732,13 +3709,13 @@
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -3746,13 +3723,13 @@
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -3801,13 +3778,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -3856,13 +3833,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>49</v>
@@ -3870,13 +3847,13 @@
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>49</v>
@@ -3884,13 +3861,13 @@
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>49</v>
@@ -3898,13 +3875,13 @@
     </row>
     <row r="5" ht="60" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>49</v>
@@ -3912,13 +3889,13 @@
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
@@ -3926,13 +3903,13 @@
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
@@ -3940,13 +3917,13 @@
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>49</v>
@@ -3954,13 +3931,13 @@
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
@@ -3968,13 +3945,13 @@
     </row>
     <row r="10" ht="60" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>49</v>
@@ -3982,13 +3959,13 @@
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>49</v>
@@ -3996,13 +3973,13 @@
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -4010,13 +3987,13 @@
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>49</v>
@@ -4024,13 +4001,13 @@
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -4038,13 +4015,13 @@
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>49</v>
@@ -4052,13 +4029,13 @@
     </row>
     <row r="16" ht="60" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
@@ -4066,13 +4043,13 @@
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>49</v>
@@ -4080,13 +4057,13 @@
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>49</v>
@@ -4094,13 +4071,13 @@
     </row>
     <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>49</v>
@@ -4108,13 +4085,13 @@
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>49</v>
@@ -4122,13 +4099,13 @@
     </row>
     <row r="21" ht="45" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>49</v>
@@ -4136,13 +4113,13 @@
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>49</v>
@@ -4150,13 +4127,13 @@
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
@@ -4164,13 +4141,13 @@
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>49</v>
@@ -4178,13 +4155,13 @@
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>49</v>
@@ -4192,13 +4169,13 @@
     </row>
     <row r="26" ht="30" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>49</v>
@@ -4206,13 +4183,13 @@
     </row>
     <row r="27" ht="45" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>49</v>
@@ -4220,13 +4197,13 @@
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>49</v>
@@ -4234,13 +4211,13 @@
     </row>
     <row r="29" ht="30" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>49</v>
@@ -4248,13 +4225,13 @@
     </row>
     <row r="30" ht="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>49</v>
@@ -4262,13 +4239,13 @@
     </row>
     <row r="31" ht="30" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>49</v>
@@ -4276,13 +4253,13 @@
     </row>
     <row r="32" ht="30" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>49</v>
@@ -4332,13 +4309,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -4346,13 +4323,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -4360,13 +4337,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>
@@ -4417,13 +4394,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>49</v>
@@ -4431,13 +4408,13 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
@@ -4445,13 +4422,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>49</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Suite7" sheetId="8" r:id="rId8"/>
     <sheet name="Suite8" sheetId="9" r:id="rId9"/>
     <sheet name="Suite9" sheetId="10" r:id="rId10"/>
+    <sheet name="Suite10" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Suite1">Suite1!$A$1:$C$10</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -57,48 +58,48 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Suite5</t>
+  </si>
+  <si>
+    <t>Product Description Page</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Suite5</t>
-  </si>
-  <si>
-    <t>Product Description Page</t>
-  </si>
-  <si>
     <t>Suite6</t>
   </si>
   <si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>Suite9</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>Suite10</t>
   </si>
   <si>
     <t>SETTINGS</t>
@@ -908,16 +915,31 @@
   <si>
     <t>Navigate to Card List page:User is able to see all the details on Card List Page for Anniversary Gifts.</t>
   </si>
+  <si>
+    <t>IGP_TC_001</t>
+  </si>
+  <si>
+    <t>Check whether logged in user is able to make payment for hand delivery products.</t>
+  </si>
+  <si>
+    <t>IGP_TC_002</t>
+  </si>
+  <si>
+    <t>Check whether logged in user is able to make payment for courier products.</t>
+  </si>
+  <si>
+    <t>Check whether logged in user is able to make payment for international products.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -985,23 +1007,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1021,7 +1043,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,16 +1073,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,6 +1097,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1066,16 +1112,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,44 +1149,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,7 +1183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,19 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,25 +1219,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1273,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,13 +1321,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,79 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,21 +1407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1426,9 +1433,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,21 +1496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1471,154 +1504,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2107,7 +2129,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2115,7 +2137,7 @@
     <col min="1" max="1" width="31.8571428571429" style="20"/>
     <col min="2" max="2" width="17.2761904761905" style="20"/>
     <col min="3" max="3" width="12.8571428571429" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6.07619047619048" style="20"/>
+    <col min="4" max="4" width="8.09523809523809" style="20" customWidth="1"/>
     <col min="5" max="5" width="18.0857142857143" style="20"/>
     <col min="6" max="1025" width="6.07619047619048" style="20"/>
   </cols>
@@ -2163,7 +2185,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2181,7 +2203,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2189,13 +2211,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2204,16 +2226,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2222,16 +2244,16 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2240,10 +2262,10 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>9</v>
@@ -2253,7 +2275,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2308,10 +2330,18 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="26"/>
     </row>
     <row r="13" ht="15.75" spans="1:5">
@@ -2337,7 +2367,7 @@
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2346,10 +2376,10 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -2357,10 +2387,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -2368,7 +2398,7 @@
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>9</v>
@@ -2379,10 +2409,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2390,11 +2420,11 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2416,7 +2446,7 @@
     </row>
     <row r="24" ht="15.75" spans="1:5">
       <c r="A24" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2425,10 +2455,10 @@
     </row>
     <row r="25" ht="15.75" spans="1:5">
       <c r="A25" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -2436,10 +2466,10 @@
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2447,10 +2477,10 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2458,10 +2488,10 @@
     </row>
     <row r="28" ht="15.75" spans="1:5">
       <c r="A28" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2511,7 +2541,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2522,59 +2552,189 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="47.25" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2587,7 +2747,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2601,238 +2761,238 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" s="19"/>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +3007,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2860,335 +3020,335 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" ht="60" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" ht="45" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" ht="60" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3222,366 +3382,366 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3611,128 +3771,128 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3764,30 +3924,30 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3805,8 +3965,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3819,450 +3979,450 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="45" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="30" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4295,58 +4455,58 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4380,58 +4540,58 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -58,24 +58,27 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Suite3</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Product Description Page</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Suite6</t>
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2211,13 +2211,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2226,16 +2226,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2244,16 +2244,16 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2262,10 +2262,10 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>9</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2334,7 +2334,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>9</v>
@@ -2412,7 +2412,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2469,7 +2469,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2480,7 +2480,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2491,7 +2491,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2569,7 +2569,7 @@
         <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>283</v>
@@ -2583,7 +2583,7 @@
         <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>285</v>
@@ -2597,7 +2597,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>287</v>
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>289</v>
@@ -2661,7 +2661,7 @@
         <v>290</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>291</v>
@@ -2778,7 +2778,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>50</v>
@@ -2792,7 +2792,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -2806,7 +2806,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
@@ -2820,7 +2820,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>57</v>
@@ -2834,7 +2834,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>59</v>
@@ -2848,7 +2848,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>61</v>
@@ -2862,7 +2862,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>63</v>
@@ -2876,7 +2876,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -2891,7 +2891,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>67</v>
@@ -2905,7 +2905,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>69</v>
@@ -2919,7 +2919,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>71</v>
@@ -2933,7 +2933,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>73</v>
@@ -2947,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>75</v>
@@ -2961,7 +2961,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>77</v>
@@ -2975,7 +2975,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
@@ -2989,7 +2989,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>81</v>
@@ -3007,7 +3007,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3037,7 +3037,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>83</v>
@@ -3048,7 +3048,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>85</v>
@@ -3059,7 +3059,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>87</v>
@@ -3070,7 +3070,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
@@ -3081,7 +3081,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>91</v>
@@ -3092,7 +3092,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>93</v>
@@ -3103,7 +3103,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>95</v>
@@ -3114,7 +3114,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>97</v>
@@ -3125,7 +3125,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>99</v>
@@ -3136,7 +3136,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>101</v>
@@ -3147,7 +3147,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>103</v>
@@ -3158,7 +3158,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>103</v>
@@ -3169,7 +3169,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>106</v>
@@ -3180,7 +3180,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>108</v>
@@ -3191,7 +3191,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>110</v>
@@ -3202,7 +3202,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>112</v>
@@ -3213,7 +3213,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>114</v>
@@ -3224,7 +3224,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>116</v>
@@ -3235,7 +3235,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>118</v>
@@ -3246,7 +3246,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>120</v>
@@ -3257,7 +3257,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>122</v>
@@ -3268,7 +3268,7 @@
         <v>123</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>124</v>
@@ -3279,7 +3279,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>126</v>
@@ -3290,7 +3290,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>128</v>
@@ -3301,7 +3301,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>130</v>
@@ -3312,7 +3312,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>132</v>
@@ -3323,7 +3323,7 @@
         <v>133</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>134</v>
@@ -3334,7 +3334,7 @@
         <v>135</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>136</v>
@@ -3345,7 +3345,7 @@
         <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>138</v>
@@ -3399,7 +3399,7 @@
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>140</v>
@@ -3413,7 +3413,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>142</v>
@@ -3427,7 +3427,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>144</v>
@@ -3441,7 +3441,7 @@
         <v>145</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>146</v>
@@ -3455,7 +3455,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>148</v>
@@ -3469,7 +3469,7 @@
         <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>150</v>
@@ -3483,7 +3483,7 @@
         <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>152</v>
@@ -3497,7 +3497,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>154</v>
@@ -3511,7 +3511,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>156</v>
@@ -3525,7 +3525,7 @@
         <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>158</v>
@@ -3539,7 +3539,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>160</v>
@@ -3553,7 +3553,7 @@
         <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>162</v>
@@ -3567,7 +3567,7 @@
         <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>164</v>
@@ -3581,7 +3581,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>166</v>
@@ -3595,7 +3595,7 @@
         <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>168</v>
@@ -3609,7 +3609,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>170</v>
@@ -3623,7 +3623,7 @@
         <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>172</v>
@@ -3637,7 +3637,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>174</v>
@@ -3651,7 +3651,7 @@
         <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>176</v>
@@ -3665,7 +3665,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>178</v>
@@ -3679,7 +3679,7 @@
         <v>179</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>180</v>
@@ -3693,7 +3693,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>182</v>
@@ -3707,7 +3707,7 @@
         <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>184</v>
@@ -3721,7 +3721,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>186</v>
@@ -3735,7 +3735,7 @@
         <v>188</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>189</v>
@@ -3788,7 +3788,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>191</v>
@@ -3802,7 +3802,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>193</v>
@@ -3816,7 +3816,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>195</v>
@@ -3830,7 +3830,7 @@
         <v>196</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>197</v>
@@ -3844,7 +3844,7 @@
         <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>199</v>
@@ -3858,7 +3858,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>201</v>
@@ -3872,7 +3872,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>203</v>
@@ -3886,7 +3886,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>205</v>
@@ -3941,7 +3941,7 @@
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>207</v>
@@ -3965,8 +3965,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4136,7 +4136,7 @@
         <v>228</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>229</v>
@@ -4472,7 +4472,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>271</v>
@@ -4486,7 +4486,7 @@
         <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>273</v>
@@ -4500,7 +4500,7 @@
         <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>275</v>
@@ -4557,7 +4557,7 @@
         <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>277</v>
@@ -4571,7 +4571,7 @@
         <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>279</v>
@@ -4585,7 +4585,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987" activeTab="6"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -936,10 +936,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1015,23 +1015,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1042,8 +1034,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,6 +1054,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1073,21 +1088,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1096,45 +1096,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,7 +1112,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,13 +1183,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,13 +1225,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,13 +1273,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,127 +1357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,6 +1407,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1422,31 +1455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,36 +1485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1504,12 +1493,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1517,130 +1517,130 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2128,8 +2128,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2412,7 +2412,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -3965,7 +3965,7 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="987"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -58,70 +58,70 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Suite5</t>
+  </si>
+  <si>
+    <t>Product Description Page</t>
+  </si>
+  <si>
+    <t>Suite6</t>
+  </si>
+  <si>
+    <t>Product Listing Page</t>
+  </si>
+  <si>
+    <t>Suite7</t>
+  </si>
+  <si>
+    <t>Product Strip</t>
+  </si>
+  <si>
+    <t>Suite8</t>
+  </si>
+  <si>
+    <t>Card List</t>
+  </si>
+  <si>
+    <t>Suite9</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Suite5</t>
-  </si>
-  <si>
-    <t>Product Description Page</t>
-  </si>
-  <si>
-    <t>Suite6</t>
-  </si>
-  <si>
-    <t>Product Listing Page</t>
-  </si>
-  <si>
-    <t>Suite7</t>
-  </si>
-  <si>
-    <t>Product Strip</t>
-  </si>
-  <si>
-    <t>Suite8</t>
-  </si>
-  <si>
-    <t>Card List</t>
-  </si>
-  <si>
-    <t>Suite9</t>
-  </si>
-  <si>
-    <t>Sanity</t>
   </si>
   <si>
     <t>Suite10</t>
@@ -928,7 +928,52 @@
     <t>Check whether logged in user is able to make payment for courier products.</t>
   </si>
   <si>
+    <t>IGP_TC_003</t>
+  </si>
+  <si>
     <t>Check whether logged in user is able to make payment for international products.</t>
+  </si>
+  <si>
+    <t>IGP_TC_004</t>
+  </si>
+  <si>
+    <t>Check whether new user is able to make payment for hand delivery products.</t>
+  </si>
+  <si>
+    <t>IGP_TC_005</t>
+  </si>
+  <si>
+    <t>Check whether new user is able to make payment for courier products.</t>
+  </si>
+  <si>
+    <t>IGP_TC_006</t>
+  </si>
+  <si>
+    <t>Check whether new user is able to make payment for international products.</t>
+  </si>
+  <si>
+    <t>IGP_TC_007</t>
+  </si>
+  <si>
+    <t>Check whether user is able to make payment for Card List Page for Birthday.</t>
+  </si>
+  <si>
+    <t>IGP_TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether user is able to make payment for Card List Page for Gifts for Women </t>
+  </si>
+  <si>
+    <t>IGP_TC_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether user is able to make payment for Card List Page for Anniversary Gifts. </t>
+  </si>
+  <si>
+    <t>IGP_TC_010</t>
+  </si>
+  <si>
+    <t>Check whether a new user is able to Sign Up.</t>
   </si>
 </sst>
 </file>
@@ -936,10 +981,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1015,15 +1060,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1034,16 +1087,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,21 +1099,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1088,6 +1118,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1096,8 +1141,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,44 +1194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,31 +1228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,7 +1252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,7 +1276,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,43 +1348,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,73 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,17 +1452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,6 +1478,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1440,17 +1496,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,21 +1541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1493,23 +1549,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1517,130 +1562,130 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2128,8 +2173,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2185,7 +2230,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2203,7 +2248,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2211,13 +2256,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2226,16 +2271,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2244,16 +2289,16 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2262,7 +2307,7 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>8</v>
@@ -2271,16 +2316,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>8</v>
@@ -2289,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="26">
         <v>3</v>
@@ -2297,7 +2342,7 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>8</v>
@@ -2306,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
@@ -2314,7 +2359,7 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>8</v>
@@ -2323,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
@@ -2331,10 +2376,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>9</v>
@@ -2412,7 +2457,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2424,7 +2469,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2469,7 +2514,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2480,7 +2525,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2491,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2569,7 +2614,7 @@
         <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>283</v>
@@ -2583,7 +2628,7 @@
         <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>285</v>
@@ -2597,7 +2642,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>287</v>
@@ -2617,8 +2662,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2647,7 +2692,7 @@
         <v>288</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>289</v>
@@ -2661,62 +2706,126 @@
         <v>290</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
+        <v>293</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="30" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
       <c r="A12" s="4"/>
@@ -2778,7 +2887,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>50</v>
@@ -2792,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -2806,7 +2915,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
@@ -2820,7 +2929,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>57</v>
@@ -2834,7 +2943,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>59</v>
@@ -2848,7 +2957,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>61</v>
@@ -2862,7 +2971,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>63</v>
@@ -2876,7 +2985,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -2891,7 +3000,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>67</v>
@@ -2905,7 +3014,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>69</v>
@@ -2919,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>71</v>
@@ -2933,7 +3042,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>73</v>
@@ -2947,7 +3056,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>75</v>
@@ -2961,7 +3070,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>77</v>
@@ -2975,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
@@ -2989,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>81</v>
@@ -3037,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>83</v>
@@ -3048,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>85</v>
@@ -3059,7 +3168,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>87</v>
@@ -3070,7 +3179,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
@@ -3081,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>91</v>
@@ -3092,7 +3201,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>93</v>
@@ -3103,7 +3212,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>95</v>
@@ -3114,7 +3223,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>97</v>
@@ -3125,7 +3234,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>99</v>
@@ -3136,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>101</v>
@@ -3147,7 +3256,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>103</v>
@@ -3158,7 +3267,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>103</v>
@@ -3169,7 +3278,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>106</v>
@@ -3180,7 +3289,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>108</v>
@@ -3191,7 +3300,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>110</v>
@@ -3202,7 +3311,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>112</v>
@@ -3213,7 +3322,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>114</v>
@@ -3224,7 +3333,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>116</v>
@@ -3235,7 +3344,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>118</v>
@@ -3246,7 +3355,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>120</v>
@@ -3257,7 +3366,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>122</v>
@@ -3268,7 +3377,7 @@
         <v>123</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>124</v>
@@ -3279,7 +3388,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>126</v>
@@ -3290,7 +3399,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>128</v>
@@ -3301,7 +3410,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>130</v>
@@ -3312,7 +3421,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>132</v>
@@ -3323,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>134</v>
@@ -3334,7 +3443,7 @@
         <v>135</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>136</v>
@@ -3345,7 +3454,7 @@
         <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>138</v>
@@ -3399,7 +3508,7 @@
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>140</v>
@@ -3413,7 +3522,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>142</v>
@@ -3427,7 +3536,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>144</v>
@@ -3441,7 +3550,7 @@
         <v>145</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>146</v>
@@ -3455,7 +3564,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>148</v>
@@ -3469,7 +3578,7 @@
         <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>150</v>
@@ -3483,7 +3592,7 @@
         <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>152</v>
@@ -3497,7 +3606,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>154</v>
@@ -3511,7 +3620,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>156</v>
@@ -3525,7 +3634,7 @@
         <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>158</v>
@@ -3539,7 +3648,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>160</v>
@@ -3553,7 +3662,7 @@
         <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>162</v>
@@ -3567,7 +3676,7 @@
         <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>164</v>
@@ -3581,7 +3690,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>166</v>
@@ -3595,7 +3704,7 @@
         <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>168</v>
@@ -3609,7 +3718,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>170</v>
@@ -3623,7 +3732,7 @@
         <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>172</v>
@@ -3637,7 +3746,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>174</v>
@@ -3651,7 +3760,7 @@
         <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>176</v>
@@ -3665,7 +3774,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>178</v>
@@ -3679,7 +3788,7 @@
         <v>179</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>180</v>
@@ -3693,7 +3802,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>182</v>
@@ -3707,7 +3816,7 @@
         <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>184</v>
@@ -3721,7 +3830,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>186</v>
@@ -3735,7 +3844,7 @@
         <v>188</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>189</v>
@@ -3788,7 +3897,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>191</v>
@@ -3802,7 +3911,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>193</v>
@@ -3816,7 +3925,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>195</v>
@@ -3830,7 +3939,7 @@
         <v>196</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>197</v>
@@ -3844,7 +3953,7 @@
         <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>199</v>
@@ -3858,7 +3967,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>201</v>
@@ -3872,7 +3981,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>203</v>
@@ -3886,7 +3995,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>205</v>
@@ -3941,7 +4050,7 @@
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>207</v>
@@ -3996,7 +4105,7 @@
         <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>209</v>
@@ -4010,7 +4119,7 @@
         <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>211</v>
@@ -4024,7 +4133,7 @@
         <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>213</v>
@@ -4038,7 +4147,7 @@
         <v>214</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>215</v>
@@ -4052,7 +4161,7 @@
         <v>216</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>217</v>
@@ -4066,7 +4175,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>219</v>
@@ -4080,7 +4189,7 @@
         <v>220</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>221</v>
@@ -4094,7 +4203,7 @@
         <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>223</v>
@@ -4108,7 +4217,7 @@
         <v>224</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>225</v>
@@ -4122,7 +4231,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>227</v>
@@ -4136,7 +4245,7 @@
         <v>228</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>229</v>
@@ -4150,7 +4259,7 @@
         <v>230</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>231</v>
@@ -4164,7 +4273,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>233</v>
@@ -4178,7 +4287,7 @@
         <v>234</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>235</v>
@@ -4192,7 +4301,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>237</v>
@@ -4206,7 +4315,7 @@
         <v>238</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>239</v>
@@ -4220,7 +4329,7 @@
         <v>240</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>241</v>
@@ -4234,7 +4343,7 @@
         <v>242</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>243</v>
@@ -4248,7 +4357,7 @@
         <v>244</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>245</v>
@@ -4262,7 +4371,7 @@
         <v>246</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>247</v>
@@ -4276,7 +4385,7 @@
         <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>249</v>
@@ -4290,7 +4399,7 @@
         <v>250</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>251</v>
@@ -4304,7 +4413,7 @@
         <v>252</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>253</v>
@@ -4318,7 +4427,7 @@
         <v>254</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>255</v>
@@ -4332,7 +4441,7 @@
         <v>256</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>257</v>
@@ -4346,7 +4455,7 @@
         <v>258</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>259</v>
@@ -4360,7 +4469,7 @@
         <v>260</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>261</v>
@@ -4374,7 +4483,7 @@
         <v>262</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>263</v>
@@ -4388,7 +4497,7 @@
         <v>264</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>265</v>
@@ -4402,7 +4511,7 @@
         <v>266</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>267</v>
@@ -4416,7 +4525,7 @@
         <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>269</v>
@@ -4472,7 +4581,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>271</v>
@@ -4486,7 +4595,7 @@
         <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>273</v>
@@ -4500,7 +4609,7 @@
         <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>275</v>
@@ -4557,7 +4666,7 @@
         <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>277</v>
@@ -4571,7 +4680,7 @@
         <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>279</v>
@@ -4585,7 +4694,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -2662,7 +2662,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2692,7 +2692,7 @@
         <v>288</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>289</v>
@@ -2706,7 +2706,7 @@
         <v>290</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>291</v>
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>293</v>
@@ -2734,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>295</v>
@@ -2748,7 +2748,7 @@
         <v>296</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>297</v>
@@ -2762,7 +2762,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>299</v>
@@ -2776,7 +2776,7 @@
         <v>300</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>301</v>
@@ -2790,7 +2790,7 @@
         <v>302</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>303</v>
@@ -2804,7 +2804,7 @@
         <v>304</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>305</v>
@@ -2818,7 +2818,7 @@
         <v>306</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>307</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987" activeTab="10"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -58,24 +58,27 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Suite3</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>Sanity</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Suite10</t>
@@ -1053,13 +1053,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1087,13 +1080,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1113,13 +1099,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,7 +1144,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,13 +1179,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1193,6 +1186,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1228,6 +1228,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1246,7 +1264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,79 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,24 +1331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,6 +1355,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,138 +1554,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2173,8 +2173,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2256,13 +2256,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>8</v>
@@ -2316,16 +2316,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>8</v>
@@ -2334,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="26">
         <v>3</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>8</v>
@@ -2351,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>8</v>
@@ -2368,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>9</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2514,7 +2514,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2525,7 +2525,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2536,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2614,7 +2614,7 @@
         <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>283</v>
@@ -2628,7 +2628,7 @@
         <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>285</v>
@@ -2642,7 +2642,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>287</v>
@@ -2662,7 +2662,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2692,7 +2692,7 @@
         <v>288</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>289</v>
@@ -2706,7 +2706,7 @@
         <v>290</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>291</v>
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>293</v>
@@ -2734,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>295</v>
@@ -2748,7 +2748,7 @@
         <v>296</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>297</v>
@@ -2762,7 +2762,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>299</v>
@@ -2776,7 +2776,7 @@
         <v>300</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>301</v>
@@ -2790,7 +2790,7 @@
         <v>302</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>303</v>
@@ -2804,7 +2804,7 @@
         <v>304</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>305</v>
@@ -2818,7 +2818,7 @@
         <v>306</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>307</v>
@@ -2887,7 +2887,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>50</v>
@@ -2901,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -2915,7 +2915,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
@@ -2929,7 +2929,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>57</v>
@@ -2943,7 +2943,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>59</v>
@@ -2957,7 +2957,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>61</v>
@@ -2971,7 +2971,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>63</v>
@@ -2985,7 +2985,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -3000,7 +3000,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>67</v>
@@ -3014,7 +3014,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>69</v>
@@ -3028,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>71</v>
@@ -3042,7 +3042,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>73</v>
@@ -3056,7 +3056,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>75</v>
@@ -3070,7 +3070,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>77</v>
@@ -3084,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
@@ -3098,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>81</v>
@@ -3146,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>83</v>
@@ -3157,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>85</v>
@@ -3168,7 +3168,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>87</v>
@@ -3179,7 +3179,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
@@ -3190,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>91</v>
@@ -3201,7 +3201,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>93</v>
@@ -3212,7 +3212,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>95</v>
@@ -3223,7 +3223,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>97</v>
@@ -3234,7 +3234,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>99</v>
@@ -3245,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>101</v>
@@ -3256,7 +3256,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>103</v>
@@ -3267,7 +3267,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>103</v>
@@ -3278,7 +3278,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>106</v>
@@ -3289,7 +3289,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>108</v>
@@ -3300,7 +3300,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>110</v>
@@ -3311,7 +3311,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>112</v>
@@ -3322,7 +3322,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>114</v>
@@ -3333,7 +3333,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>116</v>
@@ -3344,7 +3344,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>118</v>
@@ -3355,7 +3355,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>120</v>
@@ -3366,7 +3366,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>122</v>
@@ -3377,7 +3377,7 @@
         <v>123</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>124</v>
@@ -3388,7 +3388,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>126</v>
@@ -3399,7 +3399,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>128</v>
@@ -3410,7 +3410,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>130</v>
@@ -3421,7 +3421,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>132</v>
@@ -3432,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>134</v>
@@ -3443,7 +3443,7 @@
         <v>135</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>136</v>
@@ -3454,7 +3454,7 @@
         <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>138</v>
@@ -3508,7 +3508,7 @@
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>140</v>
@@ -3522,7 +3522,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>142</v>
@@ -3536,7 +3536,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>144</v>
@@ -3550,7 +3550,7 @@
         <v>145</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>146</v>
@@ -3564,7 +3564,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>148</v>
@@ -3578,7 +3578,7 @@
         <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>150</v>
@@ -3592,7 +3592,7 @@
         <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>152</v>
@@ -3606,7 +3606,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>154</v>
@@ -3620,7 +3620,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>156</v>
@@ -3634,7 +3634,7 @@
         <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>160</v>
@@ -3662,7 +3662,7 @@
         <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>162</v>
@@ -3676,7 +3676,7 @@
         <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>164</v>
@@ -3690,7 +3690,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>166</v>
@@ -3704,7 +3704,7 @@
         <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>168</v>
@@ -3718,7 +3718,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>170</v>
@@ -3732,7 +3732,7 @@
         <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>172</v>
@@ -3746,7 +3746,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>174</v>
@@ -3760,7 +3760,7 @@
         <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>176</v>
@@ -3774,7 +3774,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>178</v>
@@ -3788,7 +3788,7 @@
         <v>179</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>180</v>
@@ -3802,7 +3802,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>182</v>
@@ -3816,7 +3816,7 @@
         <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>184</v>
@@ -3830,7 +3830,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>186</v>
@@ -3844,7 +3844,7 @@
         <v>188</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>189</v>
@@ -3897,7 +3897,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>191</v>
@@ -3911,7 +3911,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>193</v>
@@ -3925,7 +3925,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>195</v>
@@ -3939,7 +3939,7 @@
         <v>196</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>197</v>
@@ -3953,7 +3953,7 @@
         <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>199</v>
@@ -3967,7 +3967,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>201</v>
@@ -3981,7 +3981,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>203</v>
@@ -3995,7 +3995,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>205</v>
@@ -4050,7 +4050,7 @@
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>207</v>
@@ -4105,7 +4105,7 @@
         <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>209</v>
@@ -4119,7 +4119,7 @@
         <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>211</v>
@@ -4133,7 +4133,7 @@
         <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>213</v>
@@ -4147,7 +4147,7 @@
         <v>214</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>215</v>
@@ -4161,7 +4161,7 @@
         <v>216</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>217</v>
@@ -4175,7 +4175,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>219</v>
@@ -4189,7 +4189,7 @@
         <v>220</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>221</v>
@@ -4203,7 +4203,7 @@
         <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>223</v>
@@ -4217,7 +4217,7 @@
         <v>224</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>225</v>
@@ -4231,7 +4231,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>227</v>
@@ -4245,7 +4245,7 @@
         <v>228</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>229</v>
@@ -4259,7 +4259,7 @@
         <v>230</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>231</v>
@@ -4273,7 +4273,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>233</v>
@@ -4287,7 +4287,7 @@
         <v>234</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>235</v>
@@ -4301,7 +4301,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>237</v>
@@ -4315,7 +4315,7 @@
         <v>238</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>239</v>
@@ -4329,7 +4329,7 @@
         <v>240</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>241</v>
@@ -4343,7 +4343,7 @@
         <v>242</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>243</v>
@@ -4357,7 +4357,7 @@
         <v>244</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>245</v>
@@ -4371,7 +4371,7 @@
         <v>246</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>247</v>
@@ -4385,7 +4385,7 @@
         <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>249</v>
@@ -4399,7 +4399,7 @@
         <v>250</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>251</v>
@@ -4413,7 +4413,7 @@
         <v>252</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>253</v>
@@ -4427,7 +4427,7 @@
         <v>254</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>255</v>
@@ -4441,7 +4441,7 @@
         <v>256</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>257</v>
@@ -4455,7 +4455,7 @@
         <v>258</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>259</v>
@@ -4469,7 +4469,7 @@
         <v>260</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>261</v>
@@ -4483,7 +4483,7 @@
         <v>262</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>263</v>
@@ -4497,7 +4497,7 @@
         <v>264</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>265</v>
@@ -4511,7 +4511,7 @@
         <v>266</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>267</v>
@@ -4525,7 +4525,7 @@
         <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>269</v>
@@ -4581,7 +4581,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>271</v>
@@ -4595,7 +4595,7 @@
         <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>273</v>
@@ -4609,7 +4609,7 @@
         <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>275</v>
@@ -4666,7 +4666,7 @@
         <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>277</v>
@@ -4680,7 +4680,7 @@
         <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>279</v>
@@ -4694,7 +4694,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -58,37 +58,37 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
   </si>
   <si>
     <t>REST</t>
@@ -1053,6 +1053,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1080,6 +1087,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1099,6 +1113,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,28 +1165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,6 +1179,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1186,13 +1193,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1228,24 +1228,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1264,25 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1276,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,6 +1367,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,60 +1409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,138 +1554,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2173,8 +2173,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2256,13 +2256,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2362,7 +2362,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>9</v>
@@ -2379,7 +2379,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>9</v>
@@ -2457,7 +2457,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2514,7 +2514,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2525,7 +2525,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2536,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2585,8 +2585,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2614,7 +2614,7 @@
         <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>283</v>
@@ -2692,7 +2692,7 @@
         <v>288</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>289</v>
@@ -2706,7 +2706,7 @@
         <v>290</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>291</v>
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>293</v>
@@ -2734,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>295</v>
@@ -2748,7 +2748,7 @@
         <v>296</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>297</v>
@@ -2762,7 +2762,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>299</v>
@@ -2776,7 +2776,7 @@
         <v>300</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>301</v>
@@ -2790,7 +2790,7 @@
         <v>302</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>303</v>
@@ -2804,7 +2804,7 @@
         <v>304</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>305</v>
@@ -2818,7 +2818,7 @@
         <v>306</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>307</v>
@@ -2857,7 +2857,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3098,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>81</v>
@@ -3116,7 +3116,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3146,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>83</v>
@@ -3366,7 +3366,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>122</v>
@@ -3454,7 +3454,7 @@
         <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>138</v>
@@ -3508,7 +3508,7 @@
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>140</v>
@@ -3522,7 +3522,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>142</v>
@@ -3536,7 +3536,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>144</v>
@@ -3550,7 +3550,7 @@
         <v>145</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>146</v>
@@ -3564,7 +3564,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>148</v>
@@ -3578,7 +3578,7 @@
         <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>150</v>
@@ -3592,7 +3592,7 @@
         <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>152</v>
@@ -3606,7 +3606,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>154</v>
@@ -3620,7 +3620,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>156</v>
@@ -3634,7 +3634,7 @@
         <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>160</v>
@@ -3662,7 +3662,7 @@
         <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>162</v>
@@ -3676,7 +3676,7 @@
         <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>164</v>
@@ -3690,7 +3690,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>166</v>
@@ -3704,7 +3704,7 @@
         <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>168</v>
@@ -3718,7 +3718,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>170</v>
@@ -3732,7 +3732,7 @@
         <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>172</v>
@@ -3746,7 +3746,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>174</v>
@@ -3760,7 +3760,7 @@
         <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>176</v>
@@ -3774,7 +3774,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>178</v>
@@ -3788,7 +3788,7 @@
         <v>179</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>180</v>
@@ -3802,7 +3802,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>182</v>
@@ -3816,7 +3816,7 @@
         <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>184</v>
@@ -3830,7 +3830,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>186</v>
@@ -3844,7 +3844,7 @@
         <v>188</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>189</v>
@@ -3897,7 +3897,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>191</v>
@@ -3911,7 +3911,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>193</v>
@@ -3925,7 +3925,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>195</v>
@@ -3939,7 +3939,7 @@
         <v>196</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>197</v>
@@ -3953,7 +3953,7 @@
         <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>199</v>
@@ -3967,7 +3967,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>201</v>
@@ -3981,7 +3981,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>203</v>
@@ -3995,7 +3995,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>205</v>
@@ -4050,7 +4050,7 @@
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>207</v>
@@ -4074,7 +4074,7 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
@@ -4105,7 +4105,7 @@
         <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>209</v>
@@ -4119,7 +4119,7 @@
         <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>211</v>
@@ -4133,7 +4133,7 @@
         <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>213</v>
@@ -4147,7 +4147,7 @@
         <v>214</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>215</v>
@@ -4161,7 +4161,7 @@
         <v>216</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>217</v>
@@ -4175,7 +4175,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>219</v>
@@ -4189,7 +4189,7 @@
         <v>220</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>221</v>
@@ -4203,7 +4203,7 @@
         <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>223</v>
@@ -4217,7 +4217,7 @@
         <v>224</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>225</v>
@@ -4231,7 +4231,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>227</v>
@@ -4245,7 +4245,7 @@
         <v>228</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>229</v>
@@ -4259,7 +4259,7 @@
         <v>230</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>231</v>
@@ -4273,7 +4273,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>233</v>
@@ -4287,7 +4287,7 @@
         <v>234</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>235</v>
@@ -4301,7 +4301,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>237</v>
@@ -4315,7 +4315,7 @@
         <v>238</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>239</v>
@@ -4329,7 +4329,7 @@
         <v>240</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>241</v>
@@ -4343,7 +4343,7 @@
         <v>242</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>243</v>
@@ -4357,7 +4357,7 @@
         <v>244</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>245</v>
@@ -4371,7 +4371,7 @@
         <v>246</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>247</v>
@@ -4385,7 +4385,7 @@
         <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>249</v>
@@ -4399,7 +4399,7 @@
         <v>250</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>251</v>
@@ -4413,7 +4413,7 @@
         <v>252</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>253</v>
@@ -4427,7 +4427,7 @@
         <v>254</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>255</v>
@@ -4441,7 +4441,7 @@
         <v>256</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>257</v>
@@ -4455,7 +4455,7 @@
         <v>258</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>259</v>
@@ -4469,7 +4469,7 @@
         <v>260</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>261</v>
@@ -4483,7 +4483,7 @@
         <v>262</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>263</v>
@@ -4497,7 +4497,7 @@
         <v>264</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>265</v>
@@ -4511,7 +4511,7 @@
         <v>266</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>267</v>
@@ -4525,7 +4525,7 @@
         <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>269</v>
@@ -4553,7 +4553,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -4581,7 +4581,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>271</v>
@@ -4636,7 +4636,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -4666,7 +4666,7 @@
         <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>277</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987" activeTab="9"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -58,24 +58,27 @@
     <t>Cart page</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Checkout Page</t>
+  </si>
+  <si>
+    <t>Suite2</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Suite1</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>Suite2</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Suite3</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>URL Tests</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>REST</t>
@@ -1060,6 +1060,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1072,6 +1079,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -1080,25 +1095,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,11 +1125,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1141,9 +1155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,28 +1178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,7 +1186,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,6 +1228,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1252,61 +1276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,7 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,43 +1348,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,6 +1452,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1463,65 +1472,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,8 +1494,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,138 +1554,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2173,8 +2173,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2256,13 +2256,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2310,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>9</v>
@@ -2362,7 +2362,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>9</v>
@@ -2379,7 +2379,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>9</v>
@@ -2457,7 +2457,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2514,7 +2514,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2525,7 +2525,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2536,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2585,7 +2585,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
@@ -2614,7 +2614,7 @@
         <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>283</v>
@@ -2628,7 +2628,7 @@
         <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>285</v>
@@ -2642,7 +2642,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>287</v>
@@ -2692,7 +2692,7 @@
         <v>288</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>289</v>
@@ -2706,7 +2706,7 @@
         <v>290</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>291</v>
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>293</v>
@@ -2734,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>295</v>
@@ -2748,7 +2748,7 @@
         <v>296</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>297</v>
@@ -2762,7 +2762,7 @@
         <v>298</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>299</v>
@@ -2776,7 +2776,7 @@
         <v>300</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>301</v>
@@ -2790,7 +2790,7 @@
         <v>302</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>303</v>
@@ -2804,7 +2804,7 @@
         <v>304</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>305</v>
@@ -2818,7 +2818,7 @@
         <v>306</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>307</v>
@@ -2856,7 +2856,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2887,7 +2887,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>50</v>
@@ -2901,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -2915,7 +2915,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
@@ -2929,7 +2929,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>57</v>
@@ -2943,7 +2943,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>59</v>
@@ -2957,7 +2957,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>61</v>
@@ -2971,7 +2971,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>63</v>
@@ -2985,7 +2985,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -3000,7 +3000,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>67</v>
@@ -3014,7 +3014,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>69</v>
@@ -3028,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>71</v>
@@ -3042,7 +3042,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>73</v>
@@ -3056,7 +3056,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>75</v>
@@ -3070,7 +3070,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>77</v>
@@ -3084,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
@@ -3098,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>81</v>
@@ -3116,7 +3116,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3146,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>83</v>
@@ -3157,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>85</v>
@@ -3168,7 +3168,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>87</v>
@@ -3179,7 +3179,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
@@ -3190,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>91</v>
@@ -3201,7 +3201,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>93</v>
@@ -3212,7 +3212,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>95</v>
@@ -3223,7 +3223,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>97</v>
@@ -3234,7 +3234,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>99</v>
@@ -3245,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>101</v>
@@ -3256,7 +3256,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>103</v>
@@ -3267,7 +3267,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>103</v>
@@ -3278,7 +3278,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>106</v>
@@ -3289,7 +3289,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>108</v>
@@ -3300,7 +3300,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>110</v>
@@ -3311,7 +3311,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>112</v>
@@ -3322,7 +3322,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>114</v>
@@ -3333,7 +3333,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>116</v>
@@ -3344,7 +3344,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>118</v>
@@ -3355,7 +3355,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>120</v>
@@ -3366,7 +3366,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>122</v>
@@ -3377,7 +3377,7 @@
         <v>123</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>124</v>
@@ -3388,7 +3388,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>126</v>
@@ -3399,7 +3399,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>128</v>
@@ -3410,7 +3410,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>130</v>
@@ -3421,7 +3421,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>132</v>
@@ -3432,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>134</v>
@@ -3443,7 +3443,7 @@
         <v>135</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>136</v>
@@ -3454,7 +3454,7 @@
         <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>138</v>
@@ -3508,7 +3508,7 @@
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>140</v>
@@ -3522,7 +3522,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>142</v>
@@ -3536,7 +3536,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>144</v>
@@ -3550,7 +3550,7 @@
         <v>145</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>146</v>
@@ -3564,7 +3564,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>148</v>
@@ -3578,7 +3578,7 @@
         <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>150</v>
@@ -3592,7 +3592,7 @@
         <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>152</v>
@@ -3606,7 +3606,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>154</v>
@@ -3620,7 +3620,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>156</v>
@@ -3634,7 +3634,7 @@
         <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>158</v>
@@ -3648,7 +3648,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>160</v>
@@ -3662,7 +3662,7 @@
         <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>162</v>
@@ -3676,7 +3676,7 @@
         <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>164</v>
@@ -3690,7 +3690,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>166</v>
@@ -3704,7 +3704,7 @@
         <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>168</v>
@@ -3718,7 +3718,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>170</v>
@@ -3732,7 +3732,7 @@
         <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>172</v>
@@ -3746,7 +3746,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>174</v>
@@ -3760,7 +3760,7 @@
         <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>176</v>
@@ -3774,7 +3774,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>178</v>
@@ -3788,7 +3788,7 @@
         <v>179</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>180</v>
@@ -3802,7 +3802,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>182</v>
@@ -3816,7 +3816,7 @@
         <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>184</v>
@@ -3830,7 +3830,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>186</v>
@@ -3844,7 +3844,7 @@
         <v>188</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>189</v>
@@ -3897,7 +3897,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>191</v>
@@ -3911,7 +3911,7 @@
         <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>193</v>
@@ -3925,7 +3925,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>195</v>
@@ -3939,7 +3939,7 @@
         <v>196</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>197</v>
@@ -3953,7 +3953,7 @@
         <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>199</v>
@@ -3967,7 +3967,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>201</v>
@@ -3981,7 +3981,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>203</v>
@@ -3995,7 +3995,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>205</v>
@@ -4050,7 +4050,7 @@
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>207</v>
@@ -4105,7 +4105,7 @@
         <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>209</v>
@@ -4119,7 +4119,7 @@
         <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>211</v>
@@ -4133,7 +4133,7 @@
         <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>213</v>
@@ -4147,7 +4147,7 @@
         <v>214</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>215</v>
@@ -4161,7 +4161,7 @@
         <v>216</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>217</v>
@@ -4175,7 +4175,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>219</v>
@@ -4189,7 +4189,7 @@
         <v>220</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>221</v>
@@ -4203,7 +4203,7 @@
         <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>223</v>
@@ -4217,7 +4217,7 @@
         <v>224</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>225</v>
@@ -4231,7 +4231,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>227</v>
@@ -4245,7 +4245,7 @@
         <v>228</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>229</v>
@@ -4259,7 +4259,7 @@
         <v>230</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>231</v>
@@ -4273,7 +4273,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>233</v>
@@ -4287,7 +4287,7 @@
         <v>234</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>235</v>
@@ -4301,7 +4301,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>237</v>
@@ -4315,7 +4315,7 @@
         <v>238</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>239</v>
@@ -4329,7 +4329,7 @@
         <v>240</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>241</v>
@@ -4343,7 +4343,7 @@
         <v>242</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>243</v>
@@ -4357,7 +4357,7 @@
         <v>244</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>245</v>
@@ -4371,7 +4371,7 @@
         <v>246</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>247</v>
@@ -4385,7 +4385,7 @@
         <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>249</v>
@@ -4399,7 +4399,7 @@
         <v>250</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>251</v>
@@ -4413,7 +4413,7 @@
         <v>252</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>253</v>
@@ -4427,7 +4427,7 @@
         <v>254</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>255</v>
@@ -4441,7 +4441,7 @@
         <v>256</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>257</v>
@@ -4455,7 +4455,7 @@
         <v>258</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>259</v>
@@ -4469,7 +4469,7 @@
         <v>260</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>261</v>
@@ -4483,7 +4483,7 @@
         <v>262</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>263</v>
@@ -4497,7 +4497,7 @@
         <v>264</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>265</v>
@@ -4511,7 +4511,7 @@
         <v>266</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>267</v>
@@ -4525,7 +4525,7 @@
         <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>269</v>
@@ -4581,7 +4581,7 @@
         <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>271</v>
@@ -4595,7 +4595,7 @@
         <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>273</v>
@@ -4609,7 +4609,7 @@
         <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>275</v>
@@ -4666,7 +4666,7 @@
         <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>277</v>
@@ -4680,7 +4680,7 @@
         <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>279</v>
@@ -4694,7 +4694,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -1053,14 +1053,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,17 +1066,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1095,10 +1087,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1118,32 +1125,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1155,8 +1141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,24 +1164,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,31 +1228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,85 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1276,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,19 +1312,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,15 +1452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1472,6 +1463,65 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1494,58 +1544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,7 +1554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1562,130 +1562,130 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2174,7 +2174,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2292,7 +2292,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>19</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="E7" s="25">
         <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2856,7 +2856,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3116,7 +3116,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3146,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>83</v>
@@ -3454,7 +3454,7 @@
         <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>138</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -1053,7 +1053,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,13 +1061,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,6 +1118,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,14 +1164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1195,6 +1187,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,7 +1228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,31 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,13 +1348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,13 +1372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,6 +1391,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,18 +1554,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1574,118 +1574,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2174,7 +2174,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E3" s="25">
         <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2310,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>9</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E8" s="25">
         <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2586,7 +2586,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2628,7 +2628,7 @@
         <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>285</v>
@@ -2642,7 +2642,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>287</v>
@@ -2856,8 +2856,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2887,7 +2887,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>50</v>
@@ -2901,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -2915,7 +2915,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
@@ -2929,7 +2929,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>57</v>
@@ -2943,7 +2943,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>59</v>
@@ -2957,7 +2957,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>61</v>
@@ -2971,7 +2971,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>63</v>
@@ -2985,7 +2985,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -3000,7 +3000,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>67</v>
@@ -3014,7 +3014,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>69</v>
@@ -3028,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>71</v>
@@ -3042,7 +3042,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>73</v>
@@ -3056,7 +3056,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>75</v>
@@ -3070,7 +3070,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>77</v>
@@ -3084,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
@@ -3116,8 +3116,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3146,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>83</v>
@@ -3157,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>85</v>
@@ -3168,7 +3168,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>87</v>
@@ -3179,7 +3179,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
@@ -3190,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>91</v>
@@ -3201,7 +3201,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>93</v>
@@ -3212,7 +3212,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>95</v>
@@ -3223,7 +3223,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>97</v>
@@ -3234,7 +3234,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>99</v>
@@ -3245,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>101</v>
@@ -3256,7 +3256,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>103</v>
@@ -3267,7 +3267,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>103</v>
@@ -3278,7 +3278,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>106</v>
@@ -3289,7 +3289,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>108</v>
@@ -3300,7 +3300,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>110</v>
@@ -3311,7 +3311,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>112</v>
@@ -3322,7 +3322,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>114</v>
@@ -3333,7 +3333,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>116</v>
@@ -3344,7 +3344,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>118</v>
@@ -3355,7 +3355,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>120</v>
@@ -3377,7 +3377,7 @@
         <v>123</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>124</v>
@@ -3388,7 +3388,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>126</v>
@@ -3399,7 +3399,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>128</v>
@@ -3410,7 +3410,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>130</v>
@@ -3421,7 +3421,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>132</v>
@@ -3432,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>134</v>
@@ -3443,7 +3443,7 @@
         <v>135</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>136</v>
@@ -3454,7 +3454,7 @@
         <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>138</v>
@@ -4074,7 +4074,7 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
@@ -4553,7 +4553,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -4595,7 +4595,7 @@
         <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>273</v>
@@ -4609,7 +4609,7 @@
         <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>275</v>
@@ -4636,7 +4636,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -4680,7 +4680,7 @@
         <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>279</v>
@@ -4694,7 +4694,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>281</v>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Tests Planned(Auto)</t>
   </si>
   <si>
-    <t>Cart page</t>
+    <t>Sanity</t>
   </si>
   <si>
     <t>Y</t>
@@ -64,7 +64,7 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Suite1</t>
+    <t>Suite10</t>
   </si>
   <si>
     <t>Checkout Page</t>
@@ -119,12 +119,6 @@
   </si>
   <si>
     <t>Suite9</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
-    <t>Suite10</t>
   </si>
   <si>
     <t>SETTINGS</t>
@@ -1053,14 +1047,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,13 +1173,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1193,6 +1180,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1228,18 +1222,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1247,18 +1229,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,25 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,6 +1282,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1348,13 +1318,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,7 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,31 +1378,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1562,31 +1556,31 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1604,88 +1598,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1762,14 +1756,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
@@ -2174,7 +2168,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2225,16 +2219,13 @@
       <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="25">
-        <f>IF(B3="Y",COUNTIF(Suite1!B2:B49,"Y"),0)</f>
-        <v>16</v>
-      </c>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2252,7 +2243,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -2270,7 +2261,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
@@ -2288,16 +2279,16 @@
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="25">
@@ -2306,7 +2297,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -2315,7 +2306,7 @@
       <c r="C8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="25">
@@ -2324,7 +2315,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -2333,15 +2324,15 @@
       <c r="C9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -2350,15 +2341,15 @@
       <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -2367,52 +2358,37 @@
       <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-    </row>
     <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="26"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" ht="15.75" spans="1:5">
-      <c r="A14" s="26"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2421,77 +2397,77 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" ht="15.75" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" ht="15.75" spans="1:5">
       <c r="A24" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2500,54 +2476,54 @@
     </row>
     <row r="25" ht="15.75" spans="1:5">
       <c r="A25" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" ht="15.75" spans="1:5">
       <c r="A28" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" ht="15.75" spans="1:5">
       <c r="A30" s="21"/>
@@ -2597,58 +2573,58 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2638,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2675,156 +2651,156 @@
   <sheetData>
     <row r="1" ht="47.25" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="30" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
@@ -2870,238 +2846,238 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="19"/>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3129,335 +3105,335 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="60" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" ht="45" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" ht="60" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3491,366 +3467,366 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3880,128 +3856,128 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4033,30 +4009,30 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4088,450 +4064,450 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="45" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="30" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4564,58 +4540,58 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4649,58 +4625,58 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -1173,6 +1173,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1180,13 +1187,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1222,6 +1222,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1229,6 +1235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,30 +1300,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1318,13 +1318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,19 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,13 +1372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,25 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1556,130 +1556,130 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2168,7 +2168,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2265,7 +2265,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>9</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="E6" s="25">
         <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:5">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B21" s="29">
         <f>SUM(E3:E15)</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2794,7 +2794,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>305</v>
@@ -4050,7 +4050,7 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="987"/>
+    <workbookView windowWidth="20385" windowHeight="7770" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Suite8" sheetId="9" r:id="rId9"/>
     <sheet name="Suite9" sheetId="10" r:id="rId10"/>
     <sheet name="Suite10" sheetId="11" r:id="rId11"/>
+    <sheet name="Suite11" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Suite1">Suite1!$A$1:$C$10</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -67,6 +68,12 @@
     <t>Suite10</t>
   </si>
   <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Suite11</t>
+  </si>
+  <si>
     <t>Checkout Page</t>
   </si>
   <si>
@@ -76,21 +83,21 @@
     <t>Payment</t>
   </si>
   <si>
+    <t>Suite3</t>
+  </si>
+  <si>
+    <t>Order Summary Page</t>
+  </si>
+  <si>
+    <t>Suite4</t>
+  </si>
+  <si>
+    <t>URL Tests</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Suite3</t>
-  </si>
-  <si>
-    <t>Order Summary Page</t>
-  </si>
-  <si>
-    <t>Suite4</t>
-  </si>
-  <si>
-    <t>URL Tests</t>
-  </si>
-  <si>
     <t>REST</t>
   </si>
   <si>
@@ -491,12 +498,6 @@
   </si>
   <si>
     <t>Credit Card &amp; Debit card: CVV: Ensure  that  when user entered invalid  cvv it has to give error.</t>
-  </si>
-  <si>
-    <t>IGP_TC_203</t>
-  </si>
-  <si>
-    <t>Credit Card &amp; Debit card: Name On the card: Verify that Name On The Card is accepting numbers and special symbols or not.</t>
   </si>
   <si>
     <t>IGP_TC_204</t>
@@ -968,6 +969,9 @@
   </si>
   <si>
     <t>Check whether a new user is able to Sign Up.</t>
+  </si>
+  <si>
+    <t>User should signup from HomePage.</t>
   </si>
 </sst>
 </file>
@@ -1047,6 +1051,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1112,13 +1123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,6 +1162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1181,14 +1193,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,6 +1226,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1235,6 +1245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,6 +1274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1270,7 +1292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,7 +1322,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,19 +1370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,60 +1407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,138 +1552,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,10 +2169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2225,7 +2229,7 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2234,35 +2238,32 @@
       <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25">
-        <f>IF(B4="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
-        <v>29</v>
-      </c>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25">
-        <f>IF(B5="Y",COUNTIF(Suite3!B2:B50,"Y"),0)</f>
-        <v>0</v>
+        <f>IF(B5="Y",COUNTIF(Suite2!B2:B50,"Y"),0)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>8</v>
@@ -2271,47 +2272,47 @@
         <v>9</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="25">
+        <f>IF(B6="Y",COUNTIF(Suite3!B2:B49,"Y"),0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="25">
-        <f>IF(B6="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="25">
-        <f>IF(B7="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
-        <v>0</v>
+        <f>IF(B7="Y",COUNTIF(Suite4!B2:B50,"Y"),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="25">
-        <f>IF(B8="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
-        <v>31</v>
+        <f>IF(B8="Y",COUNTIF(Suite5!B2:B51,"Y"),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -2327,8 +2328,9 @@
       <c r="D9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="24">
-        <v>3</v>
+      <c r="E9" s="25">
+        <f>IF(B9="Y",COUNTIF(Suite6!B2:B52,"Y"),0)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -2345,7 +2347,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
@@ -2365,12 +2367,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+    <row r="12" ht="15.75" spans="1:5">
+      <c r="A12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="24"/>
@@ -2379,32 +2391,28 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" ht="15.75" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" ht="15.75" spans="1:5">
-      <c r="A17" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="27" t="s">
@@ -2422,7 +2430,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -2430,10 +2438,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2441,56 +2449,56 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="29">
-        <f>SUM(E3:E15)</f>
-        <v>71</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="24"/>
     </row>
     <row r="22" ht="15.75" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="29">
+        <f>SUM(E3:E16)</f>
+        <v>94</v>
+      </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
+    <row r="23" ht="15.75" spans="1:5">
+      <c r="A23" s="27"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" ht="15.75" spans="1:5">
-      <c r="A24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" ht="15.75" spans="1:5">
-      <c r="A25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>8</v>
+      <c r="B26" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -2498,7 +2506,7 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>8</v>
@@ -2509,7 +2517,7 @@
     </row>
     <row r="28" ht="15.75" spans="1:5">
       <c r="A28" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>8</v>
@@ -2518,37 +2526,48 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+    <row r="29" ht="15.75" spans="1:5">
+      <c r="A29" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" ht="15.75" spans="1:5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" ht="15.75" spans="1:5">
-      <c r="A31" s="27"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" ht="15.75" spans="1:5">
       <c r="A32" s="27"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
     </row>
+    <row r="33" ht="15.75" spans="1:5">
+      <c r="A33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="sanyam.arora@testingxperts.com"/>
+    <hyperlink ref="B26" r:id="rId1" display="sanyam.arora@testingxperts.com"/>
   </hyperlinks>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2573,16 +2592,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
@@ -2596,7 +2615,7 @@
         <v>281</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
@@ -2610,7 +2629,7 @@
         <v>283</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
@@ -2624,7 +2643,7 @@
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2638,8 +2657,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2651,16 +2670,16 @@
   <sheetData>
     <row r="1" ht="47.25" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2674,7 +2693,7 @@
         <v>287</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2688,7 +2707,7 @@
         <v>289</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2702,7 +2721,7 @@
         <v>291</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2716,7 +2735,7 @@
         <v>293</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="30" spans="1:4">
@@ -2730,7 +2749,7 @@
         <v>295</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2744,7 +2763,7 @@
         <v>297</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2758,7 +2777,7 @@
         <v>299</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2772,7 +2791,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="45" spans="1:4">
@@ -2786,7 +2805,7 @@
         <v>303</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:4">
@@ -2800,7 +2819,7 @@
         <v>305</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
@@ -2820,6 +2839,54 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="18.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2846,238 +2913,238 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" s="19"/>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3105,335 +3172,335 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" ht="60" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" ht="45" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" ht="60" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3451,10 +3518,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3467,366 +3534,352 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" ht="45" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="60" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>168</v>
+      <c r="C17" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="45" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" ht="45" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>172</v>
+      <c r="C19" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>174</v>
+      <c r="C20" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>182</v>
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" ht="30" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" ht="45" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" ht="45" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3856,16 +3909,16 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:4">
@@ -3879,7 +3932,7 @@
         <v>189</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
@@ -3893,7 +3946,7 @@
         <v>191</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
@@ -3907,7 +3960,7 @@
         <v>193</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
@@ -3921,7 +3974,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
@@ -3935,7 +3988,7 @@
         <v>197</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
@@ -3949,7 +4002,7 @@
         <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
@@ -3963,7 +4016,7 @@
         <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:4">
@@ -3977,7 +4030,7 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4009,16 +4062,16 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4032,7 +4085,7 @@
         <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4064,16 +4117,16 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:4">
@@ -4087,7 +4140,7 @@
         <v>207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:4">
@@ -4101,7 +4154,7 @@
         <v>209</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:4">
@@ -4115,7 +4168,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:4">
@@ -4129,7 +4182,7 @@
         <v>213</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
@@ -4143,7 +4196,7 @@
         <v>215</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
@@ -4157,7 +4210,7 @@
         <v>217</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
@@ -4171,7 +4224,7 @@
         <v>219</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:4">
@@ -4185,7 +4238,7 @@
         <v>221</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:4">
@@ -4199,7 +4252,7 @@
         <v>223</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:4">
@@ -4213,7 +4266,7 @@
         <v>225</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:4">
@@ -4227,7 +4280,7 @@
         <v>227</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:4">
@@ -4241,7 +4294,7 @@
         <v>229</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
@@ -4255,7 +4308,7 @@
         <v>231</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:4">
@@ -4269,7 +4322,7 @@
         <v>233</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:4">
@@ -4283,7 +4336,7 @@
         <v>235</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:4">
@@ -4297,7 +4350,7 @@
         <v>237</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="30" spans="1:4">
@@ -4311,7 +4364,7 @@
         <v>239</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:4">
@@ -4325,7 +4378,7 @@
         <v>241</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:4">
@@ -4339,7 +4392,7 @@
         <v>243</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="45" spans="1:4">
@@ -4353,7 +4406,7 @@
         <v>245</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:4">
@@ -4367,7 +4420,7 @@
         <v>247</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
@@ -4381,7 +4434,7 @@
         <v>249</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
@@ -4395,7 +4448,7 @@
         <v>251</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
@@ -4409,7 +4462,7 @@
         <v>253</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:4">
@@ -4423,7 +4476,7 @@
         <v>255</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="45" spans="1:4">
@@ -4437,7 +4490,7 @@
         <v>257</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:4">
@@ -4451,7 +4504,7 @@
         <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:4">
@@ -4465,7 +4518,7 @@
         <v>261</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="30" spans="1:4">
@@ -4479,7 +4532,7 @@
         <v>263</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:4">
@@ -4493,7 +4546,7 @@
         <v>265</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="30" spans="1:4">
@@ -4507,7 +4560,7 @@
         <v>267</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4540,16 +4593,16 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="95" customHeight="1" spans="1:4">
@@ -4563,7 +4616,7 @@
         <v>269</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:4">
@@ -4577,7 +4630,7 @@
         <v>271</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93" customHeight="1" spans="1:4">
@@ -4591,7 +4644,7 @@
         <v>273</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4625,16 +4678,16 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
@@ -4648,7 +4701,7 @@
         <v>275</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
@@ -4662,7 +4715,7 @@
         <v>277</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
@@ -4676,7 +4729,7 @@
         <v>279</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7770" tabRatio="987"/>
+    <workbookView windowWidth="20385" windowHeight="7770" tabRatio="987" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -971,7 +971,19 @@
     <t>Check whether a new user is able to Sign Up.</t>
   </si>
   <si>
-    <t>User should signup from HomePage.</t>
+    <t>IGP_TC_011</t>
+  </si>
+  <si>
+    <t>SignUp:User should signup from HomePage.</t>
+  </si>
+  <si>
+    <t>IGP_TC_012</t>
+  </si>
+  <si>
+    <t>SignUp:Duplicate Email Id/Number.</t>
+  </si>
+  <si>
+    <t>IGP_TC_013</t>
   </si>
 </sst>
 </file>
@@ -979,10 +991,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1050,6 +1062,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1057,8 +1074,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,36 +1097,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1115,6 +1113,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1125,7 +1130,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,14 +1159,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1155,25 +1166,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1193,6 +1190,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,7 +1238,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,25 +1286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,115 +1304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,6 +1329,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,6 +1462,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1474,22 +1497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,17 +1527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1552,138 +1564,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2171,7 +2183,7 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
@@ -2849,13 +2861,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
@@ -2878,15 +2890,43 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="30" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
